--- a/router/exportFiles/product_list.xlsx
+++ b/router/exportFiles/product_list.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,7424 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="str">
         <v>1</v>
       </c>
       <c r="B2" t="str">
-        <v>平装鲜牛奶</v>
+        <v>数科院院服1</v>
       </c>
       <c r="C2">
-        <v>3.5</v>
+        <v>20</v>
       </c>
       <c r="D2" t="str">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>1袋</v>
+        <v>男</v>
+      </c>
+      <c r="G2" t="str">
+        <v>XXL</v>
+      </c>
+      <c r="I2" t="str">
+        <v>测试产品</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="str">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <v>箱装鲜牛奶</v>
+        <v>数科院院服2</v>
       </c>
       <c r="C3">
-        <v>52.5</v>
+        <v>20</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>12345</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="str">
+        <v>男</v>
+      </c>
+      <c r="G3" t="str">
+        <v>XXXL</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>S000001</v>
+      </c>
+      <c r="B4" t="str">
+        <v>平装鲜牛奶</v>
+      </c>
+      <c r="C4">
+        <v>3.5</v>
+      </c>
+      <c r="D4" t="str">
+        <v>A00001</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
+        <v>1袋</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>S000002</v>
+      </c>
+      <c r="B5" t="str">
+        <v>箱装鲜牛奶</v>
+      </c>
+      <c r="C5">
+        <v>52.5</v>
+      </c>
+      <c r="D5" t="str">
+        <v>A00001</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="str">
         <v>15袋</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>S000003</v>
+      </c>
+      <c r="B6" t="str">
+        <v>箱装鲜牛奶</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6" t="str">
+        <v>A00001</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="str">
+        <v>20袋</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>S000004</v>
+      </c>
+      <c r="B7" t="str">
+        <v>箱装鲜牛奶</v>
+      </c>
+      <c r="C7">
+        <v>85</v>
+      </c>
+      <c r="D7" t="str">
+        <v>A00001</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="str">
+        <v>25袋</v>
+      </c>
+      <c r="I7" t="str">
+        <v>特惠价</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>S000005</v>
+      </c>
+      <c r="B8" t="str">
+        <v>瓶装当日酸奶</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <v>A00001</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="str">
+        <v>1瓶</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>S000006</v>
+      </c>
+      <c r="B9" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C9">
+        <v>138</v>
+      </c>
+      <c r="D9" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" t="str">
+        <v>女</v>
+      </c>
+      <c r="G9" t="str">
+        <v>xs</v>
+      </c>
+      <c r="H9" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>S000007</v>
+      </c>
+      <c r="B10" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C10">
+        <v>138</v>
+      </c>
+      <c r="D10" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>女</v>
+      </c>
+      <c r="G10" t="str">
+        <v>s</v>
+      </c>
+      <c r="H10" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>S000008</v>
+      </c>
+      <c r="B11" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C11">
+        <v>138</v>
+      </c>
+      <c r="D11" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>女</v>
+      </c>
+      <c r="G11" t="str">
+        <v>m</v>
+      </c>
+      <c r="H11" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>S000009</v>
+      </c>
+      <c r="B12" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C12">
+        <v>138</v>
+      </c>
+      <c r="D12" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="str">
+        <v>女</v>
+      </c>
+      <c r="G12" t="str">
+        <v>l</v>
+      </c>
+      <c r="H12" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>S000010</v>
+      </c>
+      <c r="B13" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C13">
+        <v>138</v>
+      </c>
+      <c r="D13" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>女</v>
+      </c>
+      <c r="G13" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H13" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>S000011</v>
+      </c>
+      <c r="B14" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C14">
+        <v>138</v>
+      </c>
+      <c r="D14" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="str">
+        <v>女</v>
+      </c>
+      <c r="G14" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H14" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>S000012</v>
+      </c>
+      <c r="B15" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C15">
+        <v>138</v>
+      </c>
+      <c r="D15" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <v>女</v>
+      </c>
+      <c r="G15" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H15" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>S000013</v>
+      </c>
+      <c r="B16" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C16">
+        <v>138</v>
+      </c>
+      <c r="D16" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <v>男</v>
+      </c>
+      <c r="G16" t="str">
+        <v>s</v>
+      </c>
+      <c r="H16" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>S000014</v>
+      </c>
+      <c r="B17" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C17">
+        <v>138</v>
+      </c>
+      <c r="D17" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <v>男</v>
+      </c>
+      <c r="G17" t="str">
+        <v>m</v>
+      </c>
+      <c r="H17" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>S000015</v>
+      </c>
+      <c r="B18" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C18">
+        <v>138</v>
+      </c>
+      <c r="D18" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <v>男</v>
+      </c>
+      <c r="G18" t="str">
+        <v>l</v>
+      </c>
+      <c r="H18" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>S000016</v>
+      </c>
+      <c r="B19" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C19">
+        <v>138</v>
+      </c>
+      <c r="D19" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <v>男</v>
+      </c>
+      <c r="G19" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H19" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>S000017</v>
+      </c>
+      <c r="B20" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C20">
+        <v>138</v>
+      </c>
+      <c r="D20" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <v>男</v>
+      </c>
+      <c r="G20" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H20" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>S000018</v>
+      </c>
+      <c r="B21" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C21">
+        <v>138</v>
+      </c>
+      <c r="D21" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <v>男</v>
+      </c>
+      <c r="G21" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H21" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>S000019</v>
+      </c>
+      <c r="B22" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C22">
+        <v>138</v>
+      </c>
+      <c r="D22" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <v>男</v>
+      </c>
+      <c r="G22" t="str">
+        <v>xxxxl</v>
+      </c>
+      <c r="H22" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>S000020</v>
+      </c>
+      <c r="B23" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C23">
+        <v>138</v>
+      </c>
+      <c r="D23" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <v>女</v>
+      </c>
+      <c r="G23" t="str">
+        <v>xs</v>
+      </c>
+      <c r="H23" t="str">
+        <v>裙装</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>S000021</v>
+      </c>
+      <c r="B24" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C24">
+        <v>138</v>
+      </c>
+      <c r="D24" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <v>女</v>
+      </c>
+      <c r="G24" t="str">
+        <v>s</v>
+      </c>
+      <c r="H24" t="str">
+        <v>裙装</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>S000022</v>
+      </c>
+      <c r="B25" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C25">
+        <v>138</v>
+      </c>
+      <c r="D25" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <v>女</v>
+      </c>
+      <c r="G25" t="str">
+        <v>m</v>
+      </c>
+      <c r="H25" t="str">
+        <v>裙装</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>S000023</v>
+      </c>
+      <c r="B26" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C26">
+        <v>138</v>
+      </c>
+      <c r="D26" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <v>女</v>
+      </c>
+      <c r="G26" t="str">
+        <v>l</v>
+      </c>
+      <c r="H26" t="str">
+        <v>裙装</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>S000024</v>
+      </c>
+      <c r="B27" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C27">
+        <v>138</v>
+      </c>
+      <c r="D27" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <v>女</v>
+      </c>
+      <c r="G27" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H27" t="str">
+        <v>裙装</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>S000025</v>
+      </c>
+      <c r="B28" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C28">
+        <v>138</v>
+      </c>
+      <c r="D28" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <v>女</v>
+      </c>
+      <c r="G28" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H28" t="str">
+        <v>裙装</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>S000026</v>
+      </c>
+      <c r="B29" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C29">
+        <v>138</v>
+      </c>
+      <c r="D29" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" t="str">
+        <v>女</v>
+      </c>
+      <c r="G29" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H29" t="str">
+        <v>裙装</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>S000027</v>
+      </c>
+      <c r="B30" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C30">
+        <v>138</v>
+      </c>
+      <c r="D30" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30" t="str">
+        <v>男</v>
+      </c>
+      <c r="G30" t="str">
+        <v>s</v>
+      </c>
+      <c r="H30" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>S000028</v>
+      </c>
+      <c r="B31" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C31">
+        <v>138</v>
+      </c>
+      <c r="D31" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31" t="str">
+        <v>男</v>
+      </c>
+      <c r="G31" t="str">
+        <v>m</v>
+      </c>
+      <c r="H31" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>S000029</v>
+      </c>
+      <c r="B32" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C32">
+        <v>138</v>
+      </c>
+      <c r="D32" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32" t="str">
+        <v>男</v>
+      </c>
+      <c r="G32" t="str">
+        <v>l</v>
+      </c>
+      <c r="H32" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>S000030</v>
+      </c>
+      <c r="B33" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C33">
+        <v>138</v>
+      </c>
+      <c r="D33" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33" t="str">
+        <v>男</v>
+      </c>
+      <c r="G33" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H33" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>S000031</v>
+      </c>
+      <c r="B34" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C34">
+        <v>138</v>
+      </c>
+      <c r="D34" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34" t="str">
+        <v>男</v>
+      </c>
+      <c r="G34" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H34" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>S000032</v>
+      </c>
+      <c r="B35" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C35">
+        <v>138</v>
+      </c>
+      <c r="D35" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" t="str">
+        <v>男</v>
+      </c>
+      <c r="G35" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H35" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>S000033</v>
+      </c>
+      <c r="B36" t="str">
+        <v>夏季校服</v>
+      </c>
+      <c r="C36">
+        <v>138</v>
+      </c>
+      <c r="D36" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36" t="str">
+        <v>男</v>
+      </c>
+      <c r="G36" t="str">
+        <v>xxxxl</v>
+      </c>
+      <c r="H36" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>S000034</v>
+      </c>
+      <c r="B37" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C37">
+        <v>188</v>
+      </c>
+      <c r="D37" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="str">
+        <v>女</v>
+      </c>
+      <c r="G37" t="str">
+        <v>xs</v>
+      </c>
+      <c r="H37" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>S000035</v>
+      </c>
+      <c r="B38" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C38">
+        <v>188</v>
+      </c>
+      <c r="D38" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" t="str">
+        <v>女</v>
+      </c>
+      <c r="G38" t="str">
+        <v>s</v>
+      </c>
+      <c r="H38" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>S000036</v>
+      </c>
+      <c r="B39" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C39">
+        <v>188</v>
+      </c>
+      <c r="D39" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="str">
+        <v>女</v>
+      </c>
+      <c r="G39" t="str">
+        <v>m</v>
+      </c>
+      <c r="H39" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>S000037</v>
+      </c>
+      <c r="B40" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C40">
+        <v>188</v>
+      </c>
+      <c r="D40" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="str">
+        <v>女</v>
+      </c>
+      <c r="G40" t="str">
+        <v>l</v>
+      </c>
+      <c r="H40" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>S000038</v>
+      </c>
+      <c r="B41" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C41">
+        <v>188</v>
+      </c>
+      <c r="D41" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="str">
+        <v>女</v>
+      </c>
+      <c r="G41" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H41" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>S000039</v>
+      </c>
+      <c r="B42" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C42">
+        <v>188</v>
+      </c>
+      <c r="D42" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="str">
+        <v>女</v>
+      </c>
+      <c r="G42" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H42" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>S000040</v>
+      </c>
+      <c r="B43" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C43">
+        <v>188</v>
+      </c>
+      <c r="D43" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="str">
+        <v>女</v>
+      </c>
+      <c r="G43" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H43" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>S000041</v>
+      </c>
+      <c r="B44" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C44">
+        <v>188</v>
+      </c>
+      <c r="D44" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" t="str">
+        <v>男</v>
+      </c>
+      <c r="G44" t="str">
+        <v>s</v>
+      </c>
+      <c r="H44" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>S000042</v>
+      </c>
+      <c r="B45" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C45">
+        <v>188</v>
+      </c>
+      <c r="D45" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="str">
+        <v>男</v>
+      </c>
+      <c r="G45" t="str">
+        <v>m</v>
+      </c>
+      <c r="H45" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>S000043</v>
+      </c>
+      <c r="B46" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C46">
+        <v>188</v>
+      </c>
+      <c r="D46" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46" t="str">
+        <v>男</v>
+      </c>
+      <c r="G46" t="str">
+        <v>l</v>
+      </c>
+      <c r="H46" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>S000044</v>
+      </c>
+      <c r="B47" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C47">
+        <v>188</v>
+      </c>
+      <c r="D47" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" t="str">
+        <v>男</v>
+      </c>
+      <c r="G47" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H47" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>S000045</v>
+      </c>
+      <c r="B48" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C48">
+        <v>188</v>
+      </c>
+      <c r="D48" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="str">
+        <v>男</v>
+      </c>
+      <c r="G48" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H48" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>S000046</v>
+      </c>
+      <c r="B49" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C49">
+        <v>188</v>
+      </c>
+      <c r="D49" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49" t="str">
+        <v>男</v>
+      </c>
+      <c r="G49" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H49" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>S000047</v>
+      </c>
+      <c r="B50" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C50">
+        <v>188</v>
+      </c>
+      <c r="D50" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="str">
+        <v>男</v>
+      </c>
+      <c r="G50" t="str">
+        <v>xxxxl</v>
+      </c>
+      <c r="H50" t="str">
+        <v>上衣</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>S000048</v>
+      </c>
+      <c r="B51" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C51">
+        <v>188</v>
+      </c>
+      <c r="D51" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="str">
+        <v>女</v>
+      </c>
+      <c r="G51" t="str">
+        <v>xs</v>
+      </c>
+      <c r="H51" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>S000049</v>
+      </c>
+      <c r="B52" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C52">
+        <v>188</v>
+      </c>
+      <c r="D52" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52" t="str">
+        <v>女</v>
+      </c>
+      <c r="G52" t="str">
+        <v>s</v>
+      </c>
+      <c r="H52" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>S000050</v>
+      </c>
+      <c r="B53" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C53">
+        <v>188</v>
+      </c>
+      <c r="D53" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53" t="str">
+        <v>女</v>
+      </c>
+      <c r="G53" t="str">
+        <v>m</v>
+      </c>
+      <c r="H53" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>S000051</v>
+      </c>
+      <c r="B54" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C54">
+        <v>188</v>
+      </c>
+      <c r="D54" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="str">
+        <v>女</v>
+      </c>
+      <c r="G54" t="str">
+        <v>l</v>
+      </c>
+      <c r="H54" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>S000052</v>
+      </c>
+      <c r="B55" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C55">
+        <v>188</v>
+      </c>
+      <c r="D55" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55" t="str">
+        <v>女</v>
+      </c>
+      <c r="G55" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H55" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>S000053</v>
+      </c>
+      <c r="B56" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C56">
+        <v>188</v>
+      </c>
+      <c r="D56" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="str">
+        <v>女</v>
+      </c>
+      <c r="G56" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H56" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>S000054</v>
+      </c>
+      <c r="B57" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C57">
+        <v>188</v>
+      </c>
+      <c r="D57" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57" t="str">
+        <v>女</v>
+      </c>
+      <c r="G57" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H57" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>S000055</v>
+      </c>
+      <c r="B58" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C58">
+        <v>188</v>
+      </c>
+      <c r="D58" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="str">
+        <v>男</v>
+      </c>
+      <c r="G58" t="str">
+        <v>s</v>
+      </c>
+      <c r="H58" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>S000056</v>
+      </c>
+      <c r="B59" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C59">
+        <v>188</v>
+      </c>
+      <c r="D59" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="str">
+        <v>男</v>
+      </c>
+      <c r="G59" t="str">
+        <v>m</v>
+      </c>
+      <c r="H59" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>S000057</v>
+      </c>
+      <c r="B60" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C60">
+        <v>188</v>
+      </c>
+      <c r="D60" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="str">
+        <v>男</v>
+      </c>
+      <c r="G60" t="str">
+        <v>l</v>
+      </c>
+      <c r="H60" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>S000058</v>
+      </c>
+      <c r="B61" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C61">
+        <v>188</v>
+      </c>
+      <c r="D61" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="str">
+        <v>男</v>
+      </c>
+      <c r="G61" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H61" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>S000059</v>
+      </c>
+      <c r="B62" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C62">
+        <v>188</v>
+      </c>
+      <c r="D62" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="str">
+        <v>男</v>
+      </c>
+      <c r="G62" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H62" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>S000060</v>
+      </c>
+      <c r="B63" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C63">
+        <v>188</v>
+      </c>
+      <c r="D63" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="str">
+        <v>男</v>
+      </c>
+      <c r="G63" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H63" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>S000061</v>
+      </c>
+      <c r="B64" t="str">
+        <v>春秋校服</v>
+      </c>
+      <c r="C64">
+        <v>188</v>
+      </c>
+      <c r="D64" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="str">
+        <v>男</v>
+      </c>
+      <c r="G64" t="str">
+        <v>xxxxl</v>
+      </c>
+      <c r="H64" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>S000062</v>
+      </c>
+      <c r="B65" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C65">
+        <v>200</v>
+      </c>
+      <c r="D65" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65" t="str">
+        <v>女</v>
+      </c>
+      <c r="G65" t="str">
+        <v>xs</v>
+      </c>
+      <c r="H65" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>S000063</v>
+      </c>
+      <c r="B66" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C66">
+        <v>200</v>
+      </c>
+      <c r="D66" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66" t="str">
+        <v>女</v>
+      </c>
+      <c r="G66" t="str">
+        <v>s</v>
+      </c>
+      <c r="H66" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>S000064</v>
+      </c>
+      <c r="B67" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C67">
+        <v>200</v>
+      </c>
+      <c r="D67" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="str">
+        <v>女</v>
+      </c>
+      <c r="G67" t="str">
+        <v>m</v>
+      </c>
+      <c r="H67" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>S000065</v>
+      </c>
+      <c r="B68" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C68">
+        <v>200</v>
+      </c>
+      <c r="D68" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68" t="str">
+        <v>女</v>
+      </c>
+      <c r="G68" t="str">
+        <v>l</v>
+      </c>
+      <c r="H68" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>S000066</v>
+      </c>
+      <c r="B69" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C69">
+        <v>200</v>
+      </c>
+      <c r="D69" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69" t="str">
+        <v>女</v>
+      </c>
+      <c r="G69" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H69" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>S000067</v>
+      </c>
+      <c r="B70" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C70">
+        <v>200</v>
+      </c>
+      <c r="D70" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70" t="str">
+        <v>女</v>
+      </c>
+      <c r="G70" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H70" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>S000068</v>
+      </c>
+      <c r="B71" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C71">
+        <v>200</v>
+      </c>
+      <c r="D71" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71" t="str">
+        <v>女</v>
+      </c>
+      <c r="G71" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H71" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>S000069</v>
+      </c>
+      <c r="B72" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C72">
+        <v>200</v>
+      </c>
+      <c r="D72" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72" t="str">
+        <v>男</v>
+      </c>
+      <c r="G72" t="str">
+        <v>s</v>
+      </c>
+      <c r="H72" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>S000070</v>
+      </c>
+      <c r="B73" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C73">
+        <v>200</v>
+      </c>
+      <c r="D73" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73" t="str">
+        <v>男</v>
+      </c>
+      <c r="G73" t="str">
+        <v>m</v>
+      </c>
+      <c r="H73" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>S000071</v>
+      </c>
+      <c r="B74" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C74">
+        <v>200</v>
+      </c>
+      <c r="D74" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74" t="str">
+        <v>男</v>
+      </c>
+      <c r="G74" t="str">
+        <v>l</v>
+      </c>
+      <c r="H74" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>S000072</v>
+      </c>
+      <c r="B75" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C75">
+        <v>200</v>
+      </c>
+      <c r="D75" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75" t="str">
+        <v>男</v>
+      </c>
+      <c r="G75" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H75" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>S000073</v>
+      </c>
+      <c r="B76" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C76">
+        <v>200</v>
+      </c>
+      <c r="D76" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76" t="str">
+        <v>男</v>
+      </c>
+      <c r="G76" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H76" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>S000074</v>
+      </c>
+      <c r="B77" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C77">
+        <v>200</v>
+      </c>
+      <c r="D77" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77" t="str">
+        <v>男</v>
+      </c>
+      <c r="G77" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H77" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>S000075</v>
+      </c>
+      <c r="B78" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C78">
+        <v>200</v>
+      </c>
+      <c r="D78" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78" t="str">
+        <v>男</v>
+      </c>
+      <c r="G78" t="str">
+        <v>xxxxl</v>
+      </c>
+      <c r="H78" t="str">
+        <v>外套</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>S000076</v>
+      </c>
+      <c r="B79" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C79">
+        <v>200</v>
+      </c>
+      <c r="D79" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79" t="str">
+        <v>女</v>
+      </c>
+      <c r="G79" t="str">
+        <v>xs</v>
+      </c>
+      <c r="H79" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>S000077</v>
+      </c>
+      <c r="B80" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C80">
+        <v>200</v>
+      </c>
+      <c r="D80" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80" t="str">
+        <v>女</v>
+      </c>
+      <c r="G80" t="str">
+        <v>s</v>
+      </c>
+      <c r="H80" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>S000078</v>
+      </c>
+      <c r="B81" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C81">
+        <v>200</v>
+      </c>
+      <c r="D81" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81" t="str">
+        <v>女</v>
+      </c>
+      <c r="G81" t="str">
+        <v>m</v>
+      </c>
+      <c r="H81" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>S000079</v>
+      </c>
+      <c r="B82" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C82">
+        <v>200</v>
+      </c>
+      <c r="D82" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82" t="str">
+        <v>女</v>
+      </c>
+      <c r="G82" t="str">
+        <v>l</v>
+      </c>
+      <c r="H82" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>S000080</v>
+      </c>
+      <c r="B83" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C83">
+        <v>200</v>
+      </c>
+      <c r="D83" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83" t="str">
+        <v>女</v>
+      </c>
+      <c r="G83" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H83" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>S000081</v>
+      </c>
+      <c r="B84" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C84">
+        <v>200</v>
+      </c>
+      <c r="D84" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84" t="str">
+        <v>女</v>
+      </c>
+      <c r="G84" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H84" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>S000082</v>
+      </c>
+      <c r="B85" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C85">
+        <v>200</v>
+      </c>
+      <c r="D85" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85" t="str">
+        <v>女</v>
+      </c>
+      <c r="G85" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H85" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>S000083</v>
+      </c>
+      <c r="B86" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C86">
+        <v>200</v>
+      </c>
+      <c r="D86" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86" t="str">
+        <v>男</v>
+      </c>
+      <c r="G86" t="str">
+        <v>s</v>
+      </c>
+      <c r="H86" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>S000084</v>
+      </c>
+      <c r="B87" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C87">
+        <v>200</v>
+      </c>
+      <c r="D87" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87" t="str">
+        <v>男</v>
+      </c>
+      <c r="G87" t="str">
+        <v>m</v>
+      </c>
+      <c r="H87" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>S000085</v>
+      </c>
+      <c r="B88" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C88">
+        <v>200</v>
+      </c>
+      <c r="D88" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88" t="str">
+        <v>男</v>
+      </c>
+      <c r="G88" t="str">
+        <v>l</v>
+      </c>
+      <c r="H88" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>S000086</v>
+      </c>
+      <c r="B89" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C89">
+        <v>200</v>
+      </c>
+      <c r="D89" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89" t="str">
+        <v>男</v>
+      </c>
+      <c r="G89" t="str">
+        <v>xl</v>
+      </c>
+      <c r="H89" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>S000087</v>
+      </c>
+      <c r="B90" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C90">
+        <v>200</v>
+      </c>
+      <c r="D90" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90" t="str">
+        <v>男</v>
+      </c>
+      <c r="G90" t="str">
+        <v>xxl</v>
+      </c>
+      <c r="H90" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>S000088</v>
+      </c>
+      <c r="B91" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C91">
+        <v>200</v>
+      </c>
+      <c r="D91" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91" t="str">
+        <v>男</v>
+      </c>
+      <c r="G91" t="str">
+        <v>xxxl</v>
+      </c>
+      <c r="H91" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>S000089</v>
+      </c>
+      <c r="B92" t="str">
+        <v>冬季校服</v>
+      </c>
+      <c r="C92">
+        <v>200</v>
+      </c>
+      <c r="D92" t="str">
+        <v>A00002</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92" t="str">
+        <v>男</v>
+      </c>
+      <c r="G92" t="str">
+        <v>xxxxl</v>
+      </c>
+      <c r="H92" t="str">
+        <v>裤装</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>S000090</v>
+      </c>
+      <c r="B93" t="str">
+        <v>宿舍本月待缴电费</v>
+      </c>
+      <c r="C93">
+        <v>10000</v>
+      </c>
+      <c r="D93" t="str">
+        <v>A00003</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="I93" t="str">
+        <v>由后台自动生成本月待缴订单（暂不考虑国家补助部分）</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>S000091</v>
+      </c>
+      <c r="B94" t="str">
+        <v>宿舍空调充值</v>
+      </c>
+      <c r="C94">
+        <v>50</v>
+      </c>
+      <c r="D94" t="str">
+        <v>A00003</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94" t="str">
+        <v>50元</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>S000092</v>
+      </c>
+      <c r="B95" t="str">
+        <v>宿舍空调充值</v>
+      </c>
+      <c r="C95">
+        <v>100</v>
+      </c>
+      <c r="D95" t="str">
+        <v>A00003</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95" t="str">
+        <v>100元</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>S000093</v>
+      </c>
+      <c r="B96" t="str">
+        <v>宿舍空调充值</v>
+      </c>
+      <c r="C96">
+        <v>200</v>
+      </c>
+      <c r="D96" t="str">
+        <v>A00003</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96" t="str">
+        <v>200元</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>S000094</v>
+      </c>
+      <c r="B97" t="str">
+        <v>学年住宿费</v>
+      </c>
+      <c r="C97">
+        <v>1000</v>
+      </c>
+      <c r="D97" t="str">
+        <v>A00004</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="str">
+        <v>1000元宿舍</v>
+      </c>
+      <c r="I97" t="str">
+        <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>S000095</v>
+      </c>
+      <c r="B98" t="str">
+        <v>学年住宿费</v>
+      </c>
+      <c r="C98">
+        <v>1200</v>
+      </c>
+      <c r="D98" t="str">
+        <v>A00004</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="str">
+        <v>1200元宿舍</v>
+      </c>
+      <c r="I98" t="str">
+        <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>S000096</v>
+      </c>
+      <c r="B99" t="str">
+        <v>学年住宿费</v>
+      </c>
+      <c r="C99">
+        <v>1500</v>
+      </c>
+      <c r="D99" t="str">
+        <v>A00004</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99" t="str">
+        <v>1500元宿舍</v>
+      </c>
+      <c r="I99" t="str">
+        <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>S000097</v>
+      </c>
+      <c r="B100" t="str">
+        <v>学年住宿费</v>
+      </c>
+      <c r="C100">
+        <v>2000</v>
+      </c>
+      <c r="D100" t="str">
+        <v>A00004</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100" t="str">
+        <v>2000元宿舍</v>
+      </c>
+      <c r="I100" t="str">
+        <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>S000098</v>
+      </c>
+      <c r="B101" t="str">
+        <v>宿舍本月待缴水费</v>
+      </c>
+      <c r="C101">
+        <v>10000</v>
+      </c>
+      <c r="D101" t="str">
+        <v>A00005</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="str">
+        <v>由后台自动生成本月待缴订单（暂不考虑国家补助部分）</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>S000099</v>
+      </c>
+      <c r="B102" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C102">
+        <v>54.14</v>
+      </c>
+      <c r="D102" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G102" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H102" t="str">
+        <v>大学计算机信息技术</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>S000100</v>
+      </c>
+      <c r="B103" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C103">
+        <v>34.84</v>
+      </c>
+      <c r="D103" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G103" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H103" t="str">
+        <v>大学英语1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>S000101</v>
+      </c>
+      <c r="B104" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C104">
+        <v>30.88</v>
+      </c>
+      <c r="D104" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G104" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H104" t="str">
+        <v>大学英语2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>S000102</v>
+      </c>
+      <c r="B105" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C105">
+        <v>72.69</v>
+      </c>
+      <c r="D105" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E105">
+        <v>0</v>
+      </c>
+      <c r="F105" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G105" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H105" t="str">
+        <v>大学英语3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>S000103</v>
+      </c>
+      <c r="B106" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C106">
+        <v>40.48</v>
+      </c>
+      <c r="D106" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G106" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H106" t="str">
+        <v>大学英语4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>S000104</v>
+      </c>
+      <c r="B107" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C107">
+        <v>70.2</v>
+      </c>
+      <c r="D107" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G107" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H107" t="str">
+        <v>大学普通物理1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>S000105</v>
+      </c>
+      <c r="B108" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C108">
+        <v>65.75</v>
+      </c>
+      <c r="D108" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G108" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H108" t="str">
+        <v>大学普通物理2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>S000106</v>
+      </c>
+      <c r="B109" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C109">
+        <v>89.89</v>
+      </c>
+      <c r="D109" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E109">
+        <v>0</v>
+      </c>
+      <c r="F109" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G109" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H109" t="str">
+        <v>高等数学1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>S000107</v>
+      </c>
+      <c r="B110" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C110">
+        <v>45.24</v>
+      </c>
+      <c r="D110" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E110">
+        <v>0</v>
+      </c>
+      <c r="F110" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G110" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H110" t="str">
+        <v>高等数学2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>S000108</v>
+      </c>
+      <c r="B111" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C111">
+        <v>39.95</v>
+      </c>
+      <c r="D111" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G111" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H111" t="str">
+        <v>线性代数</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>S000109</v>
+      </c>
+      <c r="B112" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C112">
+        <v>60.36</v>
+      </c>
+      <c r="D112" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G112" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H112" t="str">
+        <v>概率论与数理统计</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>S000110</v>
+      </c>
+      <c r="B113" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C113">
+        <v>56.22</v>
+      </c>
+      <c r="D113" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G113" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H113" t="str">
+        <v>体育与健康1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>S000111</v>
+      </c>
+      <c r="B114" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C114">
+        <v>57.37</v>
+      </c>
+      <c r="D114" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E114">
+        <v>0</v>
+      </c>
+      <c r="F114" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G114" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H114" t="str">
+        <v>体育与健康2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>S000112</v>
+      </c>
+      <c r="B115" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C115">
+        <v>42.81</v>
+      </c>
+      <c r="D115" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E115">
+        <v>0</v>
+      </c>
+      <c r="F115" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G115" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H115" t="str">
+        <v>体育与健康3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>S000113</v>
+      </c>
+      <c r="B116" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C116">
+        <v>57.98</v>
+      </c>
+      <c r="D116" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G116" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H116" t="str">
+        <v>体育与健康4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>S000114</v>
+      </c>
+      <c r="B117" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C117">
+        <v>65.22</v>
+      </c>
+      <c r="D117" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G117" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H117" t="str">
+        <v>思想道德修养</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>S000115</v>
+      </c>
+      <c r="B118" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C118">
+        <v>81.28</v>
+      </c>
+      <c r="D118" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G118" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H118" t="str">
+        <v>马克思主义原理</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>S000116</v>
+      </c>
+      <c r="B119" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C119">
+        <v>81.44</v>
+      </c>
+      <c r="D119" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G119" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H119" t="str">
+        <v>近代史纲要</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>S000117</v>
+      </c>
+      <c r="B120" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C120">
+        <v>64.77</v>
+      </c>
+      <c r="D120" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G120" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H120" t="str">
+        <v>毛泽东思想概论</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>S000118</v>
+      </c>
+      <c r="B121" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C121">
+        <v>71.15</v>
+      </c>
+      <c r="D121" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G121" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H121" t="str">
+        <v>形势与政策1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>S000119</v>
+      </c>
+      <c r="B122" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C122">
+        <v>88.46</v>
+      </c>
+      <c r="D122" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G122" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H122" t="str">
+        <v>形势与政策2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>S000120</v>
+      </c>
+      <c r="B123" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C123">
+        <v>48.8</v>
+      </c>
+      <c r="D123" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G123" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H123" t="str">
+        <v>职业生涯规划1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>S000121</v>
+      </c>
+      <c r="B124" t="str">
+        <v>本科统一教材</v>
+      </c>
+      <c r="C124">
+        <v>63.65</v>
+      </c>
+      <c r="D124" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G124" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H124" t="str">
+        <v>职业生涯规划2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>S000122</v>
+      </c>
+      <c r="B125" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C125">
+        <v>39.18</v>
+      </c>
+      <c r="D125" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G125" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H125" t="str">
+        <v>面向对象与C++程序设计</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>S000123</v>
+      </c>
+      <c r="B126" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C126">
+        <v>78.4</v>
+      </c>
+      <c r="D126" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G126" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H126" t="str">
+        <v>程序设计课程实践</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>S000124</v>
+      </c>
+      <c r="B127" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C127">
+        <v>25.52</v>
+      </c>
+      <c r="D127" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G127" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H127" t="str">
+        <v>信息检索综合实践</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>S000125</v>
+      </c>
+      <c r="B128" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C128">
+        <v>51.19</v>
+      </c>
+      <c r="D128" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G128" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H128" t="str">
+        <v>计算机组成及系统结构</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>S000126</v>
+      </c>
+      <c r="B129" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C129">
+        <v>38.33</v>
+      </c>
+      <c r="D129" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G129" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H129" t="str">
+        <v>编译原理</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>S000127</v>
+      </c>
+      <c r="B130" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C130">
+        <v>44.09</v>
+      </c>
+      <c r="D130" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G130" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H130" t="str">
+        <v>数据库原理与设计</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>S000128</v>
+      </c>
+      <c r="B131" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C131">
+        <v>59.18</v>
+      </c>
+      <c r="D131" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G131" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H131" t="str">
+        <v>数据库课程实践</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>S000129</v>
+      </c>
+      <c r="B132" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C132">
+        <v>43.84</v>
+      </c>
+      <c r="D132" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G132" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H132" t="str">
+        <v>Java程序设计</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>S000130</v>
+      </c>
+      <c r="B133" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C133">
+        <v>78.11</v>
+      </c>
+      <c r="D133" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G133" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H133" t="str">
+        <v>微型计算机技术</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>S000131</v>
+      </c>
+      <c r="B134" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C134">
+        <v>42.13</v>
+      </c>
+      <c r="D134" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G134" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H134" t="str">
+        <v>操作系统课程实践</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>S000132</v>
+      </c>
+      <c r="B135" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C135">
+        <v>67.39</v>
+      </c>
+      <c r="D135" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G135" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H135" t="str">
+        <v>Linux操作系统</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>S000133</v>
+      </c>
+      <c r="B136" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C136">
+        <v>27.84</v>
+      </c>
+      <c r="D136" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G136" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H136" t="str">
+        <v>综合项目实践</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>S000134</v>
+      </c>
+      <c r="B137" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C137">
+        <v>67.97</v>
+      </c>
+      <c r="D137" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G137" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H137" t="str">
+        <v>嵌入式系统及应用</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>S000135</v>
+      </c>
+      <c r="B138" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C138">
+        <v>36.61</v>
+      </c>
+      <c r="D138" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G138" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H138" t="str">
+        <v>C语言程序设计</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>S000136</v>
+      </c>
+      <c r="B139" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C139">
+        <v>83.76</v>
+      </c>
+      <c r="D139" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139" t="str">
+        <v>计算机科学与技术</v>
+      </c>
+      <c r="G139" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H139" t="str">
+        <v>数据仓库与数据挖掘</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>S000137</v>
+      </c>
+      <c r="B140" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C140">
+        <v>46.4</v>
+      </c>
+      <c r="D140" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G140" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H140" t="str">
+        <v>数据结构</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>S000138</v>
+      </c>
+      <c r="B141" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C141">
+        <v>78.16</v>
+      </c>
+      <c r="D141" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G141" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H141" t="str">
+        <v>离散数学</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>S000139</v>
+      </c>
+      <c r="B142" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C142">
+        <v>43.54</v>
+      </c>
+      <c r="D142" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G142" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H142" t="str">
+        <v>神经网络原理</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>S000140</v>
+      </c>
+      <c r="B143" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C143">
+        <v>85.83</v>
+      </c>
+      <c r="D143" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G143" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H143" t="str">
+        <v>操作系统</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>S000141</v>
+      </c>
+      <c r="B144" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C144">
+        <v>31.91</v>
+      </c>
+      <c r="D144" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G144" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H144" t="str">
+        <v>知识表示</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>S000142</v>
+      </c>
+      <c r="B145" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C145">
+        <v>52.33</v>
+      </c>
+      <c r="D145" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G145" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H145" t="str">
+        <v>计算机组成与系统结构</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>S000143</v>
+      </c>
+      <c r="B146" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C146">
+        <v>90.61</v>
+      </c>
+      <c r="D146" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G146" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H146" t="str">
+        <v>AI算法设计与分析</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>S000144</v>
+      </c>
+      <c r="B147" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C147">
+        <v>53</v>
+      </c>
+      <c r="D147" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G147" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H147" t="str">
+        <v>机器学习</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>S000145</v>
+      </c>
+      <c r="B148" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C148">
+        <v>86.59</v>
+      </c>
+      <c r="D148" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G148" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H148" t="str">
+        <v>神经网络原理</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>S000146</v>
+      </c>
+      <c r="B149" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C149">
+        <v>81.54</v>
+      </c>
+      <c r="D149" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G149" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H149" t="str">
+        <v>操作系统</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>S000147</v>
+      </c>
+      <c r="B150" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C150">
+        <v>72.11</v>
+      </c>
+      <c r="D150" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G150" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H150" t="str">
+        <v>知识表示</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>S000148</v>
+      </c>
+      <c r="B151" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C151">
+        <v>26.49</v>
+      </c>
+      <c r="D151" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G151" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H151" t="str">
+        <v>计算机组成与系统结构</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>S000149</v>
+      </c>
+      <c r="B152" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C152">
+        <v>51.79</v>
+      </c>
+      <c r="D152" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G152" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H152" t="str">
+        <v>文献阅读和科技写作</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>S000150</v>
+      </c>
+      <c r="B153" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C153">
+        <v>50.83</v>
+      </c>
+      <c r="D153" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G153" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H153" t="str">
+        <v>机器学习</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>S000151</v>
+      </c>
+      <c r="B154" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C154">
+        <v>90.08</v>
+      </c>
+      <c r="D154" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G154" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H154" t="str">
+        <v>专家系统</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>S000152</v>
+      </c>
+      <c r="B155" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C155">
+        <v>37.46</v>
+      </c>
+      <c r="D155" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155" t="str">
+        <v>人工智能专业</v>
+      </c>
+      <c r="G155" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H155" t="str">
+        <v>编译原理</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>S000153</v>
+      </c>
+      <c r="B156" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C156">
+        <v>71.65</v>
+      </c>
+      <c r="D156" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G156" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H156" t="str">
+        <v>面向对象与JAVA程序设计</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>S000154</v>
+      </c>
+      <c r="B157" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C157">
+        <v>57.33</v>
+      </c>
+      <c r="D157" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G157" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H157" t="str">
+        <v>程序设计课程实践</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>S000155</v>
+      </c>
+      <c r="B158" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C158">
+        <v>54.69</v>
+      </c>
+      <c r="D158" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G158" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H158" t="str">
+        <v>信息检索综合实践</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>S000156</v>
+      </c>
+      <c r="B159" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C159">
+        <v>71.92</v>
+      </c>
+      <c r="D159" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G159" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H159" t="str">
+        <v>计算机硬件基础</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>S000157</v>
+      </c>
+      <c r="B160" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C160">
+        <v>71.56</v>
+      </c>
+      <c r="D160" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G160" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H160" t="str">
+        <v>数据库原理与设计</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>S000158</v>
+      </c>
+      <c r="B161" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C161">
+        <v>34.95</v>
+      </c>
+      <c r="D161" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G161" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H161" t="str">
+        <v>数据库课程实践</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>S000159</v>
+      </c>
+      <c r="B162" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C162">
+        <v>48.32</v>
+      </c>
+      <c r="D162" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G162" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H162" t="str">
+        <v>软件系统分析与设计</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>S000160</v>
+      </c>
+      <c r="B163" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C163">
+        <v>31.6</v>
+      </c>
+      <c r="D163" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G163" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H163" t="str">
+        <v>软件测试与质量保证课程实践</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>S000161</v>
+      </c>
+      <c r="B164" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C164">
+        <v>46.43</v>
+      </c>
+      <c r="D164" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G164" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H164" t="str">
+        <v>软件项目管理</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>S000162</v>
+      </c>
+      <c r="B165" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C165">
+        <v>25.24</v>
+      </c>
+      <c r="D165" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G165" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H165" t="str">
+        <v>Linux操作系统</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>S000163</v>
+      </c>
+      <c r="B166" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C166">
+        <v>77.17</v>
+      </c>
+      <c r="D166" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G166" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H166" t="str">
+        <v>编译原理</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>S000164</v>
+      </c>
+      <c r="B167" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C167">
+        <v>83.86</v>
+      </c>
+      <c r="D167" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G167" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H167" t="str">
+        <v>软件体系结构</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>S000165</v>
+      </c>
+      <c r="B168" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C168">
+        <v>79.8</v>
+      </c>
+      <c r="D168" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G168" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H168" t="str">
+        <v>C语言程序设计</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>S000166</v>
+      </c>
+      <c r="B169" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C169">
+        <v>73.54</v>
+      </c>
+      <c r="D169" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169" t="str">
+        <v>软件工程专业</v>
+      </c>
+      <c r="G169" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H169" t="str">
+        <v>移动应用开发</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>S000167</v>
+      </c>
+      <c r="B170" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C170">
+        <v>48.67</v>
+      </c>
+      <c r="D170" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G170" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H170" t="str">
+        <v>面向对象与JAVA程序设计</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>S000168</v>
+      </c>
+      <c r="B171" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C171">
+        <v>27.83</v>
+      </c>
+      <c r="D171" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G171" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H171" t="str">
+        <v>程序设计课程实践</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>S000169</v>
+      </c>
+      <c r="B172" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C172">
+        <v>47.76</v>
+      </c>
+      <c r="D172" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E172">
+        <v>0</v>
+      </c>
+      <c r="F172" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G172" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H172" t="str">
+        <v>运筹学</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>S000170</v>
+      </c>
+      <c r="B173" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C173">
+        <v>36.03</v>
+      </c>
+      <c r="D173" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G173" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H173" t="str">
+        <v>管理统计学</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>S000171</v>
+      </c>
+      <c r="B174" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C174">
+        <v>39.62</v>
+      </c>
+      <c r="D174" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G174" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H174" t="str">
+        <v>生产与运作管理</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>S000172</v>
+      </c>
+      <c r="B175" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C175">
+        <v>35.17</v>
+      </c>
+      <c r="D175" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G175" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H175" t="str">
+        <v>经济学</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>S000173</v>
+      </c>
+      <c r="B176" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C176">
+        <v>79.2</v>
+      </c>
+      <c r="D176" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G176" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H176" t="str">
+        <v>管理信息系统</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>S000174</v>
+      </c>
+      <c r="B177" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C177">
+        <v>37.07</v>
+      </c>
+      <c r="D177" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G177" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H177" t="str">
+        <v>数据库课程设计</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>S000175</v>
+      </c>
+      <c r="B178" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C178">
+        <v>76.67</v>
+      </c>
+      <c r="D178" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G178" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H178" t="str">
+        <v>信息组织与检索</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>S000176</v>
+      </c>
+      <c r="B179" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C179">
+        <v>41.48</v>
+      </c>
+      <c r="D179" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G179" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H179" t="str">
+        <v>电子商务与网络营销</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>S000177</v>
+      </c>
+      <c r="B180" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C180">
+        <v>53.29</v>
+      </c>
+      <c r="D180" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G180" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H180" t="str">
+        <v>信息系统项目管理</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>S000178</v>
+      </c>
+      <c r="B181" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C181">
+        <v>70.45</v>
+      </c>
+      <c r="D181" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G181" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H181" t="str">
+        <v>财务管理</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>S000179</v>
+      </c>
+      <c r="B182" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C182">
+        <v>64.66</v>
+      </c>
+      <c r="D182" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G182" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H182" t="str">
+        <v>信息系统分析与设计</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>S000180</v>
+      </c>
+      <c r="B183" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C183">
+        <v>26.92</v>
+      </c>
+      <c r="D183" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G183" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H183" t="str">
+        <v>C语言程序设计</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>S000181</v>
+      </c>
+      <c r="B184" t="str">
+        <v>计算机科学与技术学院教材</v>
+      </c>
+      <c r="C184">
+        <v>73.18</v>
+      </c>
+      <c r="D184" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184" t="str">
+        <v>信息管理与信息系统专业</v>
+      </c>
+      <c r="G184" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H184" t="str">
+        <v>数据仓库与数据挖掘</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>S000182</v>
+      </c>
+      <c r="B185" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C185">
+        <v>86.05</v>
+      </c>
+      <c r="D185" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G185" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H185" t="str">
+        <v>解析几何</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>S000183</v>
+      </c>
+      <c r="B186" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C186">
+        <v>25.26</v>
+      </c>
+      <c r="D186" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G186" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H186" t="str">
+        <v>数学分析1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>S000184</v>
+      </c>
+      <c r="B187" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C187">
+        <v>48.7</v>
+      </c>
+      <c r="D187" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G187" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H187" t="str">
+        <v>高等代数1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>S000185</v>
+      </c>
+      <c r="B188" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C188">
+        <v>77.37</v>
+      </c>
+      <c r="D188" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G188" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H188" t="str">
+        <v>数学分析2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>S000186</v>
+      </c>
+      <c r="B189" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C189">
+        <v>54.1</v>
+      </c>
+      <c r="D189" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G189" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H189" t="str">
+        <v>高等代数2</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>S000187</v>
+      </c>
+      <c r="B190" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C190">
+        <v>82.17</v>
+      </c>
+      <c r="D190" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G190" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H190" t="str">
+        <v>C语言程序设计</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>S000188</v>
+      </c>
+      <c r="B191" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C191">
+        <v>31.54</v>
+      </c>
+      <c r="D191" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G191" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H191" t="str">
+        <v>数学分析3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>S000189</v>
+      </c>
+      <c r="B192" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C192">
+        <v>74.84</v>
+      </c>
+      <c r="D192" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G192" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H192" t="str">
+        <v>抽象代数1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>S000190</v>
+      </c>
+      <c r="B193" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C193">
+        <v>40.38</v>
+      </c>
+      <c r="D193" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G193" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H193" t="str">
+        <v>拓扑学1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>S000191</v>
+      </c>
+      <c r="B194" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C194">
+        <v>30.59</v>
+      </c>
+      <c r="D194" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G194" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H194" t="str">
+        <v>复变函数1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>S000192</v>
+      </c>
+      <c r="B195" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C195">
+        <v>25.48</v>
+      </c>
+      <c r="D195" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G195" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H195" t="str">
+        <v>抽象代数2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>S000193</v>
+      </c>
+      <c r="B196" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C196">
+        <v>54.29</v>
+      </c>
+      <c r="D196" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G196" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H196" t="str">
+        <v>数学史</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>S000194</v>
+      </c>
+      <c r="B197" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C197">
+        <v>28.3</v>
+      </c>
+      <c r="D197" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G197" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H197" t="str">
+        <v>微分几何</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>S000195</v>
+      </c>
+      <c r="B198" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C198">
+        <v>71.38</v>
+      </c>
+      <c r="D198" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G198" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H198" t="str">
+        <v>实变函数1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>S000196</v>
+      </c>
+      <c r="B199" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C199">
+        <v>44.2</v>
+      </c>
+      <c r="D199" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G199" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H199" t="str">
+        <v>初等数论</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>S000197</v>
+      </c>
+      <c r="B200" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C200">
+        <v>35.04</v>
+      </c>
+      <c r="D200" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G200" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H200" t="str">
+        <v>泛函分析</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>S000198</v>
+      </c>
+      <c r="B201" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C201">
+        <v>43.78</v>
+      </c>
+      <c r="D201" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G201" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H201" t="str">
+        <v>群论</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>S000199</v>
+      </c>
+      <c r="B202" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C202">
+        <v>37.55</v>
+      </c>
+      <c r="D202" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G202" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H202" t="str">
+        <v>交换代数</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>S000200</v>
+      </c>
+      <c r="B203" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C203">
+        <v>87.89</v>
+      </c>
+      <c r="D203" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E203">
+        <v>0</v>
+      </c>
+      <c r="F203" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G203" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H203" t="str">
+        <v>常微与动力系统</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>S000201</v>
+      </c>
+      <c r="B204" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C204">
+        <v>56.04</v>
+      </c>
+      <c r="D204" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G204" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H204" t="str">
+        <v>伽罗瓦理论</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>S000202</v>
+      </c>
+      <c r="B205" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C205">
+        <v>38.76</v>
+      </c>
+      <c r="D205" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205" t="str">
+        <v>数学与应用数学（基地）</v>
+      </c>
+      <c r="G205" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H205" t="str">
+        <v>拓扑学2</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>S000203</v>
+      </c>
+      <c r="B206" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C206">
+        <v>37.52</v>
+      </c>
+      <c r="D206" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G206" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H206" t="str">
+        <v>解析几何</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>S000204</v>
+      </c>
+      <c r="B207" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C207">
+        <v>43.48</v>
+      </c>
+      <c r="D207" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G207" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H207" t="str">
+        <v>数学分析1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>S000205</v>
+      </c>
+      <c r="B208" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C208">
+        <v>75.92</v>
+      </c>
+      <c r="D208" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G208" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H208" t="str">
+        <v>高等代数1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>S000206</v>
+      </c>
+      <c r="B209" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C209">
+        <v>66.56</v>
+      </c>
+      <c r="D209" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G209" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H209" t="str">
+        <v>数学分析2</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>S000207</v>
+      </c>
+      <c r="B210" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C210">
+        <v>88.19</v>
+      </c>
+      <c r="D210" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G210" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H210" t="str">
+        <v>高等代数2</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>S000208</v>
+      </c>
+      <c r="B211" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C211">
+        <v>77.13</v>
+      </c>
+      <c r="D211" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G211" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H211" t="str">
+        <v>C语言程序设计</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>S000209</v>
+      </c>
+      <c r="B212" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C212">
+        <v>82.05</v>
+      </c>
+      <c r="D212" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G212" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H212" t="str">
+        <v>数学分析3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>S000210</v>
+      </c>
+      <c r="B213" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C213">
+        <v>59.21</v>
+      </c>
+      <c r="D213" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G213" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H213" t="str">
+        <v>中学生认知与学习</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>S000211</v>
+      </c>
+      <c r="B214" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C214">
+        <v>49.03</v>
+      </c>
+      <c r="D214" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G214" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H214" t="str">
+        <v>教师口语</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>S000212</v>
+      </c>
+      <c r="B215" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C215">
+        <v>72.15</v>
+      </c>
+      <c r="D215" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G215" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H215" t="str">
+        <v>有效教学</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>S000213</v>
+      </c>
+      <c r="B216" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C216">
+        <v>43.89</v>
+      </c>
+      <c r="D216" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G216" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H216" t="str">
+        <v>教育学原理</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>S000214</v>
+      </c>
+      <c r="B217" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C217">
+        <v>61.51</v>
+      </c>
+      <c r="D217" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G217" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H217" t="str">
+        <v>书法基础</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>S000215</v>
+      </c>
+      <c r="B218" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C218">
+        <v>44.5</v>
+      </c>
+      <c r="D218" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G218" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H218" t="str">
+        <v>数学教育学</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>S000216</v>
+      </c>
+      <c r="B219" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C219">
+        <v>76.01</v>
+      </c>
+      <c r="D219" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G219" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H219" t="str">
+        <v>初等数学研究</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>S000217</v>
+      </c>
+      <c r="B220" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C220">
+        <v>57.53</v>
+      </c>
+      <c r="D220" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G220" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H220" t="str">
+        <v>教师教育技术</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>S000218</v>
+      </c>
+      <c r="B221" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C221">
+        <v>48.43</v>
+      </c>
+      <c r="D221" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G221" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H221" t="str">
+        <v>微格教学</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>S000219</v>
+      </c>
+      <c r="B222" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C222">
+        <v>28.08</v>
+      </c>
+      <c r="D222" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E222">
+        <v>0</v>
+      </c>
+      <c r="F222" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G222" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H222" t="str">
+        <v>教育研究方法</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>S000220</v>
+      </c>
+      <c r="B223" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C223">
+        <v>26.36</v>
+      </c>
+      <c r="D223" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G223" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H223" t="str">
+        <v>初等数学建模</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>S000221</v>
+      </c>
+      <c r="B224" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C224">
+        <v>41.93</v>
+      </c>
+      <c r="D224" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G224" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H224" t="str">
+        <v>竞赛数学</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>S000222</v>
+      </c>
+      <c r="B225" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C225">
+        <v>38.04</v>
+      </c>
+      <c r="D225" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G225" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H225" t="str">
+        <v>现代数学教育技术</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>S000223</v>
+      </c>
+      <c r="B226" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C226">
+        <v>75.44</v>
+      </c>
+      <c r="D226" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226" t="str">
+        <v>数学与应用数学（师范）</v>
+      </c>
+      <c r="G226" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H226" t="str">
+        <v>微分几何</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>S000224</v>
+      </c>
+      <c r="B227" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C227">
+        <v>28.71</v>
+      </c>
+      <c r="D227" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G227" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H227" t="str">
+        <v>解析几何</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>S000225</v>
+      </c>
+      <c r="B228" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C228">
+        <v>28.28</v>
+      </c>
+      <c r="D228" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G228" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H228" t="str">
+        <v>数学分析1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>S000226</v>
+      </c>
+      <c r="B229" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C229">
+        <v>56.78</v>
+      </c>
+      <c r="D229" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G229" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H229" t="str">
+        <v>高等代数1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>S000227</v>
+      </c>
+      <c r="B230" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C230">
+        <v>84.14</v>
+      </c>
+      <c r="D230" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G230" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H230" t="str">
+        <v>数学分析2</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>S000228</v>
+      </c>
+      <c r="B231" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C231">
+        <v>46.85</v>
+      </c>
+      <c r="D231" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E231">
+        <v>0</v>
+      </c>
+      <c r="F231" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G231" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H231" t="str">
+        <v>高等代数2</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>S000229</v>
+      </c>
+      <c r="B232" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C232">
+        <v>41.31</v>
+      </c>
+      <c r="D232" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G232" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H232" t="str">
+        <v>C语言程序设计</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>S000230</v>
+      </c>
+      <c r="B233" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C233">
+        <v>87.87</v>
+      </c>
+      <c r="D233" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G233" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H233" t="str">
+        <v>数学分析3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>S000231</v>
+      </c>
+      <c r="B234" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C234">
+        <v>39.76</v>
+      </c>
+      <c r="D234" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G234" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H234" t="str">
+        <v>离散数学</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>S000232</v>
+      </c>
+      <c r="B235" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C235">
+        <v>83.95</v>
+      </c>
+      <c r="D235" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G235" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H235" t="str">
+        <v>计算机网络</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>S000233</v>
+      </c>
+      <c r="B236" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C236">
+        <v>89.94</v>
+      </c>
+      <c r="D236" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G236" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H236" t="str">
+        <v>Java面向对象程序设计</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>S000234</v>
+      </c>
+      <c r="B237" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C237">
+        <v>86.22</v>
+      </c>
+      <c r="D237" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G237" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H237" t="str">
+        <v>数据结构</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>S000235</v>
+      </c>
+      <c r="B238" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C238">
+        <v>67.42</v>
+      </c>
+      <c r="D238" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G238" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H238" t="str">
+        <v>数学模型与数学软件</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>S000236</v>
+      </c>
+      <c r="B239" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C239">
+        <v>36.14</v>
+      </c>
+      <c r="D239" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G239" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H239" t="str">
+        <v>软件设计基础</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>S000237</v>
+      </c>
+      <c r="B240" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C240">
+        <v>77.85</v>
+      </c>
+      <c r="D240" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G240" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H240" t="str">
+        <v>数据库原理及应用</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>S000238</v>
+      </c>
+      <c r="B241" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C241">
+        <v>32.44</v>
+      </c>
+      <c r="D241" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G241" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H241" t="str">
+        <v>操作系统</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>S000239</v>
+      </c>
+      <c r="B242" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C242">
+        <v>90.72</v>
+      </c>
+      <c r="D242" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G242" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H242" t="str">
+        <v>数据科学导论</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>S000240</v>
+      </c>
+      <c r="B243" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C243">
+        <v>75.18</v>
+      </c>
+      <c r="D243" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G243" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H243" t="str">
+        <v>运筹学</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>S000241</v>
+      </c>
+      <c r="B244" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C244">
+        <v>57.3</v>
+      </c>
+      <c r="D244" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E244">
+        <v>0</v>
+      </c>
+      <c r="F244" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G244" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H244" t="str">
+        <v>数值分析</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>S000242</v>
+      </c>
+      <c r="B245" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C245">
+        <v>55.08</v>
+      </c>
+      <c r="D245" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E245">
+        <v>0</v>
+      </c>
+      <c r="F245" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G245" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H245" t="str">
+        <v>三维图形设计</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>S000243</v>
+      </c>
+      <c r="B246" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C246">
+        <v>60.13</v>
+      </c>
+      <c r="D246" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E246">
+        <v>0</v>
+      </c>
+      <c r="F246" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G246" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H246" t="str">
+        <v>web开发实训</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>S000244</v>
+      </c>
+      <c r="B247" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C247">
+        <v>51.32</v>
+      </c>
+      <c r="D247" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E247">
+        <v>0</v>
+      </c>
+      <c r="F247" t="str">
+        <v>信息与计算科学</v>
+      </c>
+      <c r="G247" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H247" t="str">
+        <v>算法实践</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>S000245</v>
+      </c>
+      <c r="B248" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C248">
+        <v>66.58</v>
+      </c>
+      <c r="D248" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E248">
+        <v>0</v>
+      </c>
+      <c r="F248" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G248" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H248" t="str">
+        <v>解析几何</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>S000246</v>
+      </c>
+      <c r="B249" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C249">
+        <v>51.5</v>
+      </c>
+      <c r="D249" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E249">
+        <v>0</v>
+      </c>
+      <c r="F249" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G249" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H249" t="str">
+        <v>数学分析1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>S000247</v>
+      </c>
+      <c r="B250" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C250">
+        <v>39.25</v>
+      </c>
+      <c r="D250" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G250" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H250" t="str">
+        <v>高等代数1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>S000248</v>
+      </c>
+      <c r="B251" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C251">
+        <v>64.51</v>
+      </c>
+      <c r="D251" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E251">
+        <v>0</v>
+      </c>
+      <c r="F251" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G251" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H251" t="str">
+        <v>数学分析2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>S000249</v>
+      </c>
+      <c r="B252" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C252">
+        <v>25.38</v>
+      </c>
+      <c r="D252" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G252" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H252" t="str">
+        <v>高等代数2</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>S000250</v>
+      </c>
+      <c r="B253" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C253">
+        <v>50.53</v>
+      </c>
+      <c r="D253" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E253">
+        <v>0</v>
+      </c>
+      <c r="F253" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G253" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H253" t="str">
+        <v>C语言程序设计</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>S000251</v>
+      </c>
+      <c r="B254" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C254">
+        <v>64</v>
+      </c>
+      <c r="D254" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G254" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H254" t="str">
+        <v>数学分析3</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>S000252</v>
+      </c>
+      <c r="B255" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C255">
+        <v>81.9</v>
+      </c>
+      <c r="D255" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G255" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H255" t="str">
+        <v>统计学基础</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>S000253</v>
+      </c>
+      <c r="B256" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C256">
+        <v>81.38</v>
+      </c>
+      <c r="D256" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G256" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H256" t="str">
+        <v>组合数学</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>S000254</v>
+      </c>
+      <c r="B257" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C257">
+        <v>50.75</v>
+      </c>
+      <c r="D257" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G257" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H257" t="str">
+        <v>抽样调查</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>S000255</v>
+      </c>
+      <c r="B258" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C258">
+        <v>75.74</v>
+      </c>
+      <c r="D258" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G258" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H258" t="str">
+        <v>定性数据分析</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>S000256</v>
+      </c>
+      <c r="B259" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C259">
+        <v>67.56</v>
+      </c>
+      <c r="D259" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G259" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H259" t="str">
+        <v>数学模型与数学软件</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>S000257</v>
+      </c>
+      <c r="B260" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C260">
+        <v>44.23</v>
+      </c>
+      <c r="D260" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G260" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H260" t="str">
+        <v>统计计算与SAS软件</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>S000258</v>
+      </c>
+      <c r="B261" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C261">
+        <v>73.72</v>
+      </c>
+      <c r="D261" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G261" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H261" t="str">
+        <v>应用多元分析</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>S000259</v>
+      </c>
+      <c r="B262" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C262">
+        <v>43.32</v>
+      </c>
+      <c r="D262" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G262" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H262" t="str">
+        <v>应用回归分析</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>S000260</v>
+      </c>
+      <c r="B263" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C263">
+        <v>68.97</v>
+      </c>
+      <c r="D263" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G263" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H263" t="str">
+        <v>质量工程管理与ISO</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>S000261</v>
+      </c>
+      <c r="B264" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C264">
+        <v>39.61</v>
+      </c>
+      <c r="D264" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G264" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H264" t="str">
+        <v>应用时间序列</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>S000262</v>
+      </c>
+      <c r="B265" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C265">
+        <v>26.16</v>
+      </c>
+      <c r="D265" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G265" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H265" t="str">
+        <v>试验设计</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>S000263</v>
+      </c>
+      <c r="B266" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C266">
+        <v>68.05</v>
+      </c>
+      <c r="D266" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G266" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H266" t="str">
+        <v>应用随机过程</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>S000264</v>
+      </c>
+      <c r="B267" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C267">
+        <v>34.79</v>
+      </c>
+      <c r="D267" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G267" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H267" t="str">
+        <v>伽罗瓦理论</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>S000265</v>
+      </c>
+      <c r="B268" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C268">
+        <v>36.27</v>
+      </c>
+      <c r="D268" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" t="str">
+        <v>统计学</v>
+      </c>
+      <c r="G268" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H268" t="str">
+        <v>投资项目评估</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>S000266</v>
+      </c>
+      <c r="B269" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C269">
+        <v>36.54</v>
+      </c>
+      <c r="D269" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G269" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H269" t="str">
+        <v>货币银行学</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>S000267</v>
+      </c>
+      <c r="B270" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C270">
+        <v>86.62</v>
+      </c>
+      <c r="D270" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G270" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H270" t="str">
+        <v>数学分析1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>S000268</v>
+      </c>
+      <c r="B271" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C271">
+        <v>63.48</v>
+      </c>
+      <c r="D271" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G271" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H271" t="str">
+        <v>高等代数1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>S000269</v>
+      </c>
+      <c r="B272" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C272">
+        <v>34.56</v>
+      </c>
+      <c r="D272" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G272" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H272" t="str">
+        <v>数学分析2</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>S000270</v>
+      </c>
+      <c r="B273" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C273">
+        <v>60.4</v>
+      </c>
+      <c r="D273" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G273" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H273" t="str">
+        <v>高等代数2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>S000271</v>
+      </c>
+      <c r="B274" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C274">
+        <v>40.78</v>
+      </c>
+      <c r="D274" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E274">
+        <v>0</v>
+      </c>
+      <c r="F274" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G274" t="str">
+        <v>第2学期</v>
+      </c>
+      <c r="H274" t="str">
+        <v>C语言程序设计</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>S000272</v>
+      </c>
+      <c r="B275" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C275">
+        <v>88.97</v>
+      </c>
+      <c r="D275" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G275" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H275" t="str">
+        <v>数学分析3</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>S000273</v>
+      </c>
+      <c r="B276" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C276">
+        <v>87.48</v>
+      </c>
+      <c r="D276" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G276" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H276" t="str">
+        <v>国际贸易理论</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>S000274</v>
+      </c>
+      <c r="B277" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C277">
+        <v>88.59</v>
+      </c>
+      <c r="D277" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G277" t="str">
+        <v>第3学期</v>
+      </c>
+      <c r="H277" t="str">
+        <v>财务会计</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>S000275</v>
+      </c>
+      <c r="B278" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C278">
+        <v>86.13</v>
+      </c>
+      <c r="D278" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G278" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H278" t="str">
+        <v>财务报表分析</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>S000276</v>
+      </c>
+      <c r="B279" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C279">
+        <v>30.12</v>
+      </c>
+      <c r="D279" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G279" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H279" t="str">
+        <v>证券投资1</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>S000277</v>
+      </c>
+      <c r="B280" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C280">
+        <v>78.11</v>
+      </c>
+      <c r="D280" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E280">
+        <v>0</v>
+      </c>
+      <c r="F280" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G280" t="str">
+        <v>第4学期</v>
+      </c>
+      <c r="H280" t="str">
+        <v>数学史</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>S000278</v>
+      </c>
+      <c r="B281" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C281">
+        <v>38.35</v>
+      </c>
+      <c r="D281" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G281" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H281" t="str">
+        <v>中央银行概论</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>S000279</v>
+      </c>
+      <c r="B282" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C282">
+        <v>87.87</v>
+      </c>
+      <c r="D282" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G282" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H282" t="str">
+        <v>财政学</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>S000280</v>
+      </c>
+      <c r="B283" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C283">
+        <v>38.3</v>
+      </c>
+      <c r="D283" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G283" t="str">
+        <v>第5学期</v>
+      </c>
+      <c r="H283" t="str">
+        <v>保险学</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>S000281</v>
+      </c>
+      <c r="B284" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C284">
+        <v>42.89</v>
+      </c>
+      <c r="D284" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G284" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H284" t="str">
+        <v>风险管理</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>S000282</v>
+      </c>
+      <c r="B285" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C285">
+        <v>51.83</v>
+      </c>
+      <c r="D285" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G285" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H285" t="str">
+        <v>金融工程原理</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>S000283</v>
+      </c>
+      <c r="B286" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C286">
+        <v>84.22</v>
+      </c>
+      <c r="D286" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G286" t="str">
+        <v>第6学期</v>
+      </c>
+      <c r="H286" t="str">
+        <v>投资银行概论</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>S000284</v>
+      </c>
+      <c r="B287" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C287">
+        <v>55.9</v>
+      </c>
+      <c r="D287" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G287" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H287" t="str">
+        <v>经济法概论</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>S000285</v>
+      </c>
+      <c r="B288" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C288">
+        <v>77.07</v>
+      </c>
+      <c r="D288" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G288" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H288" t="str">
+        <v>计量经济学</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>S000286</v>
+      </c>
+      <c r="B289" t="str">
+        <v>数学科学学院教材</v>
+      </c>
+      <c r="C289">
+        <v>72.94</v>
+      </c>
+      <c r="D289" t="str">
+        <v>A00006</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289" t="str">
+        <v>金融数学</v>
+      </c>
+      <c r="G289" t="str">
+        <v>第7学期</v>
+      </c>
+      <c r="H289" t="str">
+        <v>金融专业英语</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I289"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/product_list.xlsx
+++ b/router/exportFiles/product_list.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I287"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -411,62 +411,53 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1</v>
+        <v>S000001</v>
       </c>
       <c r="B2" t="str">
-        <v>数科院院服1</v>
+        <v>平装鲜牛奶</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="str">
-        <v>12345</v>
+        <v>A00001</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>男</v>
-      </c>
-      <c r="G2" t="str">
-        <v>XXL</v>
-      </c>
-      <c r="I2" t="str">
-        <v>测试产品</v>
+        <v>1袋</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2</v>
+        <v>S000002</v>
       </c>
       <c r="B3" t="str">
-        <v>数科院院服2</v>
+        <v>箱装鲜牛奶</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>52.5</v>
       </c>
       <c r="D3" t="str">
-        <v>12345</v>
+        <v>A00001</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <v>男</v>
-      </c>
-      <c r="G3" t="str">
-        <v>XXXL</v>
+        <v>15袋</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>S000001</v>
+        <v>S000003</v>
       </c>
       <c r="B4" t="str">
-        <v>平装鲜牛奶</v>
+        <v>箱装鲜牛奶</v>
       </c>
       <c r="C4">
-        <v>3.5</v>
+        <v>70</v>
       </c>
       <c r="D4" t="str">
         <v>A00001</v>
@@ -475,18 +466,18 @@
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <v>1袋</v>
+        <v>20袋</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>S000002</v>
+        <v>S000004</v>
       </c>
       <c r="B5" t="str">
         <v>箱装鲜牛奶</v>
       </c>
       <c r="C5">
-        <v>52.5</v>
+        <v>85</v>
       </c>
       <c r="D5" t="str">
         <v>A00001</v>
@@ -495,18 +486,21 @@
         <v>1</v>
       </c>
       <c r="F5" t="str">
-        <v>15袋</v>
+        <v>25袋</v>
+      </c>
+      <c r="I5" t="str">
+        <v>特惠价</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>S000003</v>
+        <v>S000005</v>
       </c>
       <c r="B6" t="str">
-        <v>箱装鲜牛奶</v>
+        <v>瓶装当日酸奶</v>
       </c>
       <c r="C6">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
         <v>A00001</v>
@@ -515,55 +509,64 @@
         <v>1</v>
       </c>
       <c r="F6" t="str">
-        <v>20袋</v>
+        <v>1瓶</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>S000004</v>
+        <v>S000006</v>
       </c>
       <c r="B7" t="str">
-        <v>箱装鲜牛奶</v>
+        <v>夏季校服</v>
       </c>
       <c r="C7">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="D7" t="str">
-        <v>A00001</v>
+        <v>A00002</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="str">
-        <v>25袋</v>
-      </c>
-      <c r="I7" t="str">
-        <v>特惠价</v>
+        <v>女</v>
+      </c>
+      <c r="G7" t="str">
+        <v>xs</v>
+      </c>
+      <c r="H7" t="str">
+        <v>上衣</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>S000005</v>
+        <v>S000007</v>
       </c>
       <c r="B8" t="str">
-        <v>瓶装当日酸奶</v>
+        <v>夏季校服</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>138</v>
       </c>
       <c r="D8" t="str">
-        <v>A00001</v>
+        <v>A00002</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="str">
-        <v>1瓶</v>
+        <v>女</v>
+      </c>
+      <c r="G8" t="str">
+        <v>s</v>
+      </c>
+      <c r="H8" t="str">
+        <v>上衣</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>S000006</v>
+        <v>S000008</v>
       </c>
       <c r="B9" t="str">
         <v>夏季校服</v>
@@ -581,7 +584,7 @@
         <v>女</v>
       </c>
       <c r="G9" t="str">
-        <v>xs</v>
+        <v>m</v>
       </c>
       <c r="H9" t="str">
         <v>上衣</v>
@@ -589,7 +592,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>S000007</v>
+        <v>S000009</v>
       </c>
       <c r="B10" t="str">
         <v>夏季校服</v>
@@ -607,7 +610,7 @@
         <v>女</v>
       </c>
       <c r="G10" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H10" t="str">
         <v>上衣</v>
@@ -615,7 +618,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>S000008</v>
+        <v>S000010</v>
       </c>
       <c r="B11" t="str">
         <v>夏季校服</v>
@@ -633,7 +636,7 @@
         <v>女</v>
       </c>
       <c r="G11" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H11" t="str">
         <v>上衣</v>
@@ -641,7 +644,7 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>S000009</v>
+        <v>S000011</v>
       </c>
       <c r="B12" t="str">
         <v>夏季校服</v>
@@ -659,7 +662,7 @@
         <v>女</v>
       </c>
       <c r="G12" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H12" t="str">
         <v>上衣</v>
@@ -667,7 +670,7 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>S000010</v>
+        <v>S000012</v>
       </c>
       <c r="B13" t="str">
         <v>夏季校服</v>
@@ -685,7 +688,7 @@
         <v>女</v>
       </c>
       <c r="G13" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H13" t="str">
         <v>上衣</v>
@@ -693,7 +696,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>S000011</v>
+        <v>S000013</v>
       </c>
       <c r="B14" t="str">
         <v>夏季校服</v>
@@ -708,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G14" t="str">
-        <v>xxl</v>
+        <v>s</v>
       </c>
       <c r="H14" t="str">
         <v>上衣</v>
@@ -719,7 +722,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>S000012</v>
+        <v>S000014</v>
       </c>
       <c r="B15" t="str">
         <v>夏季校服</v>
@@ -734,10 +737,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G15" t="str">
-        <v>xxxl</v>
+        <v>m</v>
       </c>
       <c r="H15" t="str">
         <v>上衣</v>
@@ -745,7 +748,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>S000013</v>
+        <v>S000015</v>
       </c>
       <c r="B16" t="str">
         <v>夏季校服</v>
@@ -763,7 +766,7 @@
         <v>男</v>
       </c>
       <c r="G16" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H16" t="str">
         <v>上衣</v>
@@ -771,7 +774,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>S000014</v>
+        <v>S000016</v>
       </c>
       <c r="B17" t="str">
         <v>夏季校服</v>
@@ -789,7 +792,7 @@
         <v>男</v>
       </c>
       <c r="G17" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H17" t="str">
         <v>上衣</v>
@@ -797,7 +800,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>S000015</v>
+        <v>S000017</v>
       </c>
       <c r="B18" t="str">
         <v>夏季校服</v>
@@ -815,7 +818,7 @@
         <v>男</v>
       </c>
       <c r="G18" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H18" t="str">
         <v>上衣</v>
@@ -823,7 +826,7 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>S000016</v>
+        <v>S000018</v>
       </c>
       <c r="B19" t="str">
         <v>夏季校服</v>
@@ -841,7 +844,7 @@
         <v>男</v>
       </c>
       <c r="G19" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H19" t="str">
         <v>上衣</v>
@@ -849,7 +852,7 @@
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>S000017</v>
+        <v>S000019</v>
       </c>
       <c r="B20" t="str">
         <v>夏季校服</v>
@@ -867,7 +870,7 @@
         <v>男</v>
       </c>
       <c r="G20" t="str">
-        <v>xxl</v>
+        <v>xxxxl</v>
       </c>
       <c r="H20" t="str">
         <v>上衣</v>
@@ -875,7 +878,7 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>S000018</v>
+        <v>S000020</v>
       </c>
       <c r="B21" t="str">
         <v>夏季校服</v>
@@ -890,18 +893,18 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G21" t="str">
-        <v>xxxl</v>
+        <v>xs</v>
       </c>
       <c r="H21" t="str">
-        <v>上衣</v>
+        <v>裙装</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>S000019</v>
+        <v>S000021</v>
       </c>
       <c r="B22" t="str">
         <v>夏季校服</v>
@@ -916,18 +919,18 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G22" t="str">
-        <v>xxxxl</v>
+        <v>s</v>
       </c>
       <c r="H22" t="str">
-        <v>上衣</v>
+        <v>裙装</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>S000020</v>
+        <v>S000022</v>
       </c>
       <c r="B23" t="str">
         <v>夏季校服</v>
@@ -945,7 +948,7 @@
         <v>女</v>
       </c>
       <c r="G23" t="str">
-        <v>xs</v>
+        <v>m</v>
       </c>
       <c r="H23" t="str">
         <v>裙装</v>
@@ -953,7 +956,7 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>S000021</v>
+        <v>S000023</v>
       </c>
       <c r="B24" t="str">
         <v>夏季校服</v>
@@ -971,7 +974,7 @@
         <v>女</v>
       </c>
       <c r="G24" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H24" t="str">
         <v>裙装</v>
@@ -979,7 +982,7 @@
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>S000022</v>
+        <v>S000024</v>
       </c>
       <c r="B25" t="str">
         <v>夏季校服</v>
@@ -997,7 +1000,7 @@
         <v>女</v>
       </c>
       <c r="G25" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H25" t="str">
         <v>裙装</v>
@@ -1005,7 +1008,7 @@
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>S000023</v>
+        <v>S000025</v>
       </c>
       <c r="B26" t="str">
         <v>夏季校服</v>
@@ -1023,7 +1026,7 @@
         <v>女</v>
       </c>
       <c r="G26" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H26" t="str">
         <v>裙装</v>
@@ -1031,7 +1034,7 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>S000024</v>
+        <v>S000026</v>
       </c>
       <c r="B27" t="str">
         <v>夏季校服</v>
@@ -1049,7 +1052,7 @@
         <v>女</v>
       </c>
       <c r="G27" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H27" t="str">
         <v>裙装</v>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>S000025</v>
+        <v>S000027</v>
       </c>
       <c r="B28" t="str">
         <v>夏季校服</v>
@@ -1072,18 +1075,18 @@
         <v>0</v>
       </c>
       <c r="F28" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G28" t="str">
-        <v>xxl</v>
+        <v>s</v>
       </c>
       <c r="H28" t="str">
-        <v>裙装</v>
+        <v>裤装</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>S000026</v>
+        <v>S000028</v>
       </c>
       <c r="B29" t="str">
         <v>夏季校服</v>
@@ -1098,18 +1101,18 @@
         <v>0</v>
       </c>
       <c r="F29" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G29" t="str">
-        <v>xxxl</v>
+        <v>m</v>
       </c>
       <c r="H29" t="str">
-        <v>裙装</v>
+        <v>裤装</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>S000027</v>
+        <v>S000029</v>
       </c>
       <c r="B30" t="str">
         <v>夏季校服</v>
@@ -1127,7 +1130,7 @@
         <v>男</v>
       </c>
       <c r="G30" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H30" t="str">
         <v>裤装</v>
@@ -1135,7 +1138,7 @@
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>S000028</v>
+        <v>S000030</v>
       </c>
       <c r="B31" t="str">
         <v>夏季校服</v>
@@ -1153,7 +1156,7 @@
         <v>男</v>
       </c>
       <c r="G31" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H31" t="str">
         <v>裤装</v>
@@ -1161,7 +1164,7 @@
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>S000029</v>
+        <v>S000031</v>
       </c>
       <c r="B32" t="str">
         <v>夏季校服</v>
@@ -1179,7 +1182,7 @@
         <v>男</v>
       </c>
       <c r="G32" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H32" t="str">
         <v>裤装</v>
@@ -1187,7 +1190,7 @@
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>S000030</v>
+        <v>S000032</v>
       </c>
       <c r="B33" t="str">
         <v>夏季校服</v>
@@ -1205,7 +1208,7 @@
         <v>男</v>
       </c>
       <c r="G33" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H33" t="str">
         <v>裤装</v>
@@ -1213,7 +1216,7 @@
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>S000031</v>
+        <v>S000033</v>
       </c>
       <c r="B34" t="str">
         <v>夏季校服</v>
@@ -1231,7 +1234,7 @@
         <v>男</v>
       </c>
       <c r="G34" t="str">
-        <v>xxl</v>
+        <v>xxxxl</v>
       </c>
       <c r="H34" t="str">
         <v>裤装</v>
@@ -1239,59 +1242,59 @@
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>S000032</v>
+        <v>S000034</v>
       </c>
       <c r="B35" t="str">
-        <v>夏季校服</v>
+        <v>春秋校服</v>
       </c>
       <c r="C35">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D35" t="str">
         <v>A00002</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G35" t="str">
-        <v>xxxl</v>
+        <v>xs</v>
       </c>
       <c r="H35" t="str">
-        <v>裤装</v>
+        <v>上衣</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>S000033</v>
+        <v>S000035</v>
       </c>
       <c r="B36" t="str">
-        <v>夏季校服</v>
+        <v>春秋校服</v>
       </c>
       <c r="C36">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D36" t="str">
         <v>A00002</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G36" t="str">
-        <v>xxxxl</v>
+        <v>s</v>
       </c>
       <c r="H36" t="str">
-        <v>裤装</v>
+        <v>上衣</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>S000034</v>
+        <v>S000036</v>
       </c>
       <c r="B37" t="str">
         <v>春秋校服</v>
@@ -1309,7 +1312,7 @@
         <v>女</v>
       </c>
       <c r="G37" t="str">
-        <v>xs</v>
+        <v>m</v>
       </c>
       <c r="H37" t="str">
         <v>上衣</v>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>S000035</v>
+        <v>S000037</v>
       </c>
       <c r="B38" t="str">
         <v>春秋校服</v>
@@ -1335,7 +1338,7 @@
         <v>女</v>
       </c>
       <c r="G38" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H38" t="str">
         <v>上衣</v>
@@ -1343,7 +1346,7 @@
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>S000036</v>
+        <v>S000038</v>
       </c>
       <c r="B39" t="str">
         <v>春秋校服</v>
@@ -1361,7 +1364,7 @@
         <v>女</v>
       </c>
       <c r="G39" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H39" t="str">
         <v>上衣</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>S000037</v>
+        <v>S000039</v>
       </c>
       <c r="B40" t="str">
         <v>春秋校服</v>
@@ -1387,7 +1390,7 @@
         <v>女</v>
       </c>
       <c r="G40" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H40" t="str">
         <v>上衣</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>S000038</v>
+        <v>S000040</v>
       </c>
       <c r="B41" t="str">
         <v>春秋校服</v>
@@ -1413,7 +1416,7 @@
         <v>女</v>
       </c>
       <c r="G41" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H41" t="str">
         <v>上衣</v>
@@ -1421,7 +1424,7 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>S000039</v>
+        <v>S000041</v>
       </c>
       <c r="B42" t="str">
         <v>春秋校服</v>
@@ -1436,10 +1439,10 @@
         <v>1</v>
       </c>
       <c r="F42" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G42" t="str">
-        <v>xxl</v>
+        <v>s</v>
       </c>
       <c r="H42" t="str">
         <v>上衣</v>
@@ -1447,7 +1450,7 @@
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>S000040</v>
+        <v>S000042</v>
       </c>
       <c r="B43" t="str">
         <v>春秋校服</v>
@@ -1462,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="F43" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G43" t="str">
-        <v>xxxl</v>
+        <v>m</v>
       </c>
       <c r="H43" t="str">
         <v>上衣</v>
@@ -1473,7 +1476,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>S000041</v>
+        <v>S000043</v>
       </c>
       <c r="B44" t="str">
         <v>春秋校服</v>
@@ -1491,7 +1494,7 @@
         <v>男</v>
       </c>
       <c r="G44" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H44" t="str">
         <v>上衣</v>
@@ -1499,7 +1502,7 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>S000042</v>
+        <v>S000044</v>
       </c>
       <c r="B45" t="str">
         <v>春秋校服</v>
@@ -1517,7 +1520,7 @@
         <v>男</v>
       </c>
       <c r="G45" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H45" t="str">
         <v>上衣</v>
@@ -1525,7 +1528,7 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>S000043</v>
+        <v>S000045</v>
       </c>
       <c r="B46" t="str">
         <v>春秋校服</v>
@@ -1543,7 +1546,7 @@
         <v>男</v>
       </c>
       <c r="G46" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H46" t="str">
         <v>上衣</v>
@@ -1551,7 +1554,7 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>S000044</v>
+        <v>S000046</v>
       </c>
       <c r="B47" t="str">
         <v>春秋校服</v>
@@ -1569,7 +1572,7 @@
         <v>男</v>
       </c>
       <c r="G47" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H47" t="str">
         <v>上衣</v>
@@ -1577,7 +1580,7 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>S000045</v>
+        <v>S000047</v>
       </c>
       <c r="B48" t="str">
         <v>春秋校服</v>
@@ -1595,7 +1598,7 @@
         <v>男</v>
       </c>
       <c r="G48" t="str">
-        <v>xxl</v>
+        <v>xxxxl</v>
       </c>
       <c r="H48" t="str">
         <v>上衣</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>S000046</v>
+        <v>S000048</v>
       </c>
       <c r="B49" t="str">
         <v>春秋校服</v>
@@ -1618,18 +1621,18 @@
         <v>1</v>
       </c>
       <c r="F49" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G49" t="str">
-        <v>xxxl</v>
+        <v>xs</v>
       </c>
       <c r="H49" t="str">
-        <v>上衣</v>
+        <v>裤装</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>S000047</v>
+        <v>S000049</v>
       </c>
       <c r="B50" t="str">
         <v>春秋校服</v>
@@ -1644,18 +1647,18 @@
         <v>1</v>
       </c>
       <c r="F50" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G50" t="str">
-        <v>xxxxl</v>
+        <v>s</v>
       </c>
       <c r="H50" t="str">
-        <v>上衣</v>
+        <v>裤装</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>S000048</v>
+        <v>S000050</v>
       </c>
       <c r="B51" t="str">
         <v>春秋校服</v>
@@ -1673,7 +1676,7 @@
         <v>女</v>
       </c>
       <c r="G51" t="str">
-        <v>xs</v>
+        <v>m</v>
       </c>
       <c r="H51" t="str">
         <v>裤装</v>
@@ -1681,7 +1684,7 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>S000049</v>
+        <v>S000051</v>
       </c>
       <c r="B52" t="str">
         <v>春秋校服</v>
@@ -1699,7 +1702,7 @@
         <v>女</v>
       </c>
       <c r="G52" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H52" t="str">
         <v>裤装</v>
@@ -1707,7 +1710,7 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>S000050</v>
+        <v>S000052</v>
       </c>
       <c r="B53" t="str">
         <v>春秋校服</v>
@@ -1725,7 +1728,7 @@
         <v>女</v>
       </c>
       <c r="G53" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H53" t="str">
         <v>裤装</v>
@@ -1733,7 +1736,7 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>S000051</v>
+        <v>S000053</v>
       </c>
       <c r="B54" t="str">
         <v>春秋校服</v>
@@ -1751,7 +1754,7 @@
         <v>女</v>
       </c>
       <c r="G54" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H54" t="str">
         <v>裤装</v>
@@ -1759,7 +1762,7 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>S000052</v>
+        <v>S000054</v>
       </c>
       <c r="B55" t="str">
         <v>春秋校服</v>
@@ -1777,7 +1780,7 @@
         <v>女</v>
       </c>
       <c r="G55" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H55" t="str">
         <v>裤装</v>
@@ -1785,7 +1788,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>S000053</v>
+        <v>S000055</v>
       </c>
       <c r="B56" t="str">
         <v>春秋校服</v>
@@ -1800,10 +1803,10 @@
         <v>1</v>
       </c>
       <c r="F56" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G56" t="str">
-        <v>xxl</v>
+        <v>s</v>
       </c>
       <c r="H56" t="str">
         <v>裤装</v>
@@ -1811,7 +1814,7 @@
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>S000054</v>
+        <v>S000056</v>
       </c>
       <c r="B57" t="str">
         <v>春秋校服</v>
@@ -1826,10 +1829,10 @@
         <v>1</v>
       </c>
       <c r="F57" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G57" t="str">
-        <v>xxxl</v>
+        <v>m</v>
       </c>
       <c r="H57" t="str">
         <v>裤装</v>
@@ -1837,7 +1840,7 @@
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>S000055</v>
+        <v>S000057</v>
       </c>
       <c r="B58" t="str">
         <v>春秋校服</v>
@@ -1855,7 +1858,7 @@
         <v>男</v>
       </c>
       <c r="G58" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H58" t="str">
         <v>裤装</v>
@@ -1863,7 +1866,7 @@
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>S000056</v>
+        <v>S000058</v>
       </c>
       <c r="B59" t="str">
         <v>春秋校服</v>
@@ -1881,7 +1884,7 @@
         <v>男</v>
       </c>
       <c r="G59" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H59" t="str">
         <v>裤装</v>
@@ -1889,7 +1892,7 @@
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>S000057</v>
+        <v>S000059</v>
       </c>
       <c r="B60" t="str">
         <v>春秋校服</v>
@@ -1907,7 +1910,7 @@
         <v>男</v>
       </c>
       <c r="G60" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H60" t="str">
         <v>裤装</v>
@@ -1915,7 +1918,7 @@
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>S000058</v>
+        <v>S000060</v>
       </c>
       <c r="B61" t="str">
         <v>春秋校服</v>
@@ -1933,7 +1936,7 @@
         <v>男</v>
       </c>
       <c r="G61" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H61" t="str">
         <v>裤装</v>
@@ -1941,7 +1944,7 @@
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>S000059</v>
+        <v>S000061</v>
       </c>
       <c r="B62" t="str">
         <v>春秋校服</v>
@@ -1959,7 +1962,7 @@
         <v>男</v>
       </c>
       <c r="G62" t="str">
-        <v>xxl</v>
+        <v>xxxxl</v>
       </c>
       <c r="H62" t="str">
         <v>裤装</v>
@@ -1967,13 +1970,13 @@
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>S000060</v>
+        <v>S000062</v>
       </c>
       <c r="B63" t="str">
-        <v>春秋校服</v>
+        <v>冬季校服</v>
       </c>
       <c r="C63">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D63" t="str">
         <v>A00002</v>
@@ -1982,24 +1985,24 @@
         <v>1</v>
       </c>
       <c r="F63" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G63" t="str">
-        <v>xxxl</v>
+        <v>xs</v>
       </c>
       <c r="H63" t="str">
-        <v>裤装</v>
+        <v>外套</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>S000061</v>
+        <v>S000063</v>
       </c>
       <c r="B64" t="str">
-        <v>春秋校服</v>
+        <v>冬季校服</v>
       </c>
       <c r="C64">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D64" t="str">
         <v>A00002</v>
@@ -2008,18 +2011,18 @@
         <v>1</v>
       </c>
       <c r="F64" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G64" t="str">
-        <v>xxxxl</v>
+        <v>s</v>
       </c>
       <c r="H64" t="str">
-        <v>裤装</v>
+        <v>外套</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>S000062</v>
+        <v>S000064</v>
       </c>
       <c r="B65" t="str">
         <v>冬季校服</v>
@@ -2037,7 +2040,7 @@
         <v>女</v>
       </c>
       <c r="G65" t="str">
-        <v>xs</v>
+        <v>m</v>
       </c>
       <c r="H65" t="str">
         <v>外套</v>
@@ -2045,7 +2048,7 @@
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>S000063</v>
+        <v>S000065</v>
       </c>
       <c r="B66" t="str">
         <v>冬季校服</v>
@@ -2063,7 +2066,7 @@
         <v>女</v>
       </c>
       <c r="G66" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H66" t="str">
         <v>外套</v>
@@ -2071,7 +2074,7 @@
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>S000064</v>
+        <v>S000066</v>
       </c>
       <c r="B67" t="str">
         <v>冬季校服</v>
@@ -2089,7 +2092,7 @@
         <v>女</v>
       </c>
       <c r="G67" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H67" t="str">
         <v>外套</v>
@@ -2097,7 +2100,7 @@
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>S000065</v>
+        <v>S000067</v>
       </c>
       <c r="B68" t="str">
         <v>冬季校服</v>
@@ -2115,7 +2118,7 @@
         <v>女</v>
       </c>
       <c r="G68" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H68" t="str">
         <v>外套</v>
@@ -2123,7 +2126,7 @@
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>S000066</v>
+        <v>S000068</v>
       </c>
       <c r="B69" t="str">
         <v>冬季校服</v>
@@ -2141,7 +2144,7 @@
         <v>女</v>
       </c>
       <c r="G69" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H69" t="str">
         <v>外套</v>
@@ -2149,7 +2152,7 @@
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>S000067</v>
+        <v>S000069</v>
       </c>
       <c r="B70" t="str">
         <v>冬季校服</v>
@@ -2164,10 +2167,10 @@
         <v>1</v>
       </c>
       <c r="F70" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G70" t="str">
-        <v>xxl</v>
+        <v>s</v>
       </c>
       <c r="H70" t="str">
         <v>外套</v>
@@ -2175,7 +2178,7 @@
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>S000068</v>
+        <v>S000070</v>
       </c>
       <c r="B71" t="str">
         <v>冬季校服</v>
@@ -2190,10 +2193,10 @@
         <v>1</v>
       </c>
       <c r="F71" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G71" t="str">
-        <v>xxxl</v>
+        <v>m</v>
       </c>
       <c r="H71" t="str">
         <v>外套</v>
@@ -2201,7 +2204,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>S000069</v>
+        <v>S000071</v>
       </c>
       <c r="B72" t="str">
         <v>冬季校服</v>
@@ -2219,7 +2222,7 @@
         <v>男</v>
       </c>
       <c r="G72" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H72" t="str">
         <v>外套</v>
@@ -2227,7 +2230,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>S000070</v>
+        <v>S000072</v>
       </c>
       <c r="B73" t="str">
         <v>冬季校服</v>
@@ -2245,7 +2248,7 @@
         <v>男</v>
       </c>
       <c r="G73" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H73" t="str">
         <v>外套</v>
@@ -2253,7 +2256,7 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>S000071</v>
+        <v>S000073</v>
       </c>
       <c r="B74" t="str">
         <v>冬季校服</v>
@@ -2271,7 +2274,7 @@
         <v>男</v>
       </c>
       <c r="G74" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H74" t="str">
         <v>外套</v>
@@ -2279,7 +2282,7 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>S000072</v>
+        <v>S000074</v>
       </c>
       <c r="B75" t="str">
         <v>冬季校服</v>
@@ -2297,7 +2300,7 @@
         <v>男</v>
       </c>
       <c r="G75" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H75" t="str">
         <v>外套</v>
@@ -2305,7 +2308,7 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>S000073</v>
+        <v>S000075</v>
       </c>
       <c r="B76" t="str">
         <v>冬季校服</v>
@@ -2323,7 +2326,7 @@
         <v>男</v>
       </c>
       <c r="G76" t="str">
-        <v>xxl</v>
+        <v>xxxxl</v>
       </c>
       <c r="H76" t="str">
         <v>外套</v>
@@ -2331,7 +2334,7 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>S000074</v>
+        <v>S000076</v>
       </c>
       <c r="B77" t="str">
         <v>冬季校服</v>
@@ -2346,18 +2349,18 @@
         <v>1</v>
       </c>
       <c r="F77" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G77" t="str">
-        <v>xxxl</v>
+        <v>xs</v>
       </c>
       <c r="H77" t="str">
-        <v>外套</v>
+        <v>裤装</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>S000075</v>
+        <v>S000077</v>
       </c>
       <c r="B78" t="str">
         <v>冬季校服</v>
@@ -2372,18 +2375,18 @@
         <v>1</v>
       </c>
       <c r="F78" t="str">
-        <v>男</v>
+        <v>女</v>
       </c>
       <c r="G78" t="str">
-        <v>xxxxl</v>
+        <v>s</v>
       </c>
       <c r="H78" t="str">
-        <v>外套</v>
+        <v>裤装</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>S000076</v>
+        <v>S000078</v>
       </c>
       <c r="B79" t="str">
         <v>冬季校服</v>
@@ -2401,7 +2404,7 @@
         <v>女</v>
       </c>
       <c r="G79" t="str">
-        <v>xs</v>
+        <v>m</v>
       </c>
       <c r="H79" t="str">
         <v>裤装</v>
@@ -2409,7 +2412,7 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>S000077</v>
+        <v>S000079</v>
       </c>
       <c r="B80" t="str">
         <v>冬季校服</v>
@@ -2427,7 +2430,7 @@
         <v>女</v>
       </c>
       <c r="G80" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H80" t="str">
         <v>裤装</v>
@@ -2435,7 +2438,7 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>S000078</v>
+        <v>S000080</v>
       </c>
       <c r="B81" t="str">
         <v>冬季校服</v>
@@ -2453,7 +2456,7 @@
         <v>女</v>
       </c>
       <c r="G81" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H81" t="str">
         <v>裤装</v>
@@ -2461,7 +2464,7 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>S000079</v>
+        <v>S000081</v>
       </c>
       <c r="B82" t="str">
         <v>冬季校服</v>
@@ -2479,7 +2482,7 @@
         <v>女</v>
       </c>
       <c r="G82" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H82" t="str">
         <v>裤装</v>
@@ -2487,7 +2490,7 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>S000080</v>
+        <v>S000082</v>
       </c>
       <c r="B83" t="str">
         <v>冬季校服</v>
@@ -2505,7 +2508,7 @@
         <v>女</v>
       </c>
       <c r="G83" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H83" t="str">
         <v>裤装</v>
@@ -2513,7 +2516,7 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>S000081</v>
+        <v>S000083</v>
       </c>
       <c r="B84" t="str">
         <v>冬季校服</v>
@@ -2528,10 +2531,10 @@
         <v>1</v>
       </c>
       <c r="F84" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G84" t="str">
-        <v>xxl</v>
+        <v>s</v>
       </c>
       <c r="H84" t="str">
         <v>裤装</v>
@@ -2539,7 +2542,7 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>S000082</v>
+        <v>S000084</v>
       </c>
       <c r="B85" t="str">
         <v>冬季校服</v>
@@ -2554,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="F85" t="str">
-        <v>女</v>
+        <v>男</v>
       </c>
       <c r="G85" t="str">
-        <v>xxxl</v>
+        <v>m</v>
       </c>
       <c r="H85" t="str">
         <v>裤装</v>
@@ -2565,7 +2568,7 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>S000083</v>
+        <v>S000085</v>
       </c>
       <c r="B86" t="str">
         <v>冬季校服</v>
@@ -2583,7 +2586,7 @@
         <v>男</v>
       </c>
       <c r="G86" t="str">
-        <v>s</v>
+        <v>l</v>
       </c>
       <c r="H86" t="str">
         <v>裤装</v>
@@ -2591,7 +2594,7 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>S000084</v>
+        <v>S000086</v>
       </c>
       <c r="B87" t="str">
         <v>冬季校服</v>
@@ -2609,7 +2612,7 @@
         <v>男</v>
       </c>
       <c r="G87" t="str">
-        <v>m</v>
+        <v>xl</v>
       </c>
       <c r="H87" t="str">
         <v>裤装</v>
@@ -2617,7 +2620,7 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>S000085</v>
+        <v>S000087</v>
       </c>
       <c r="B88" t="str">
         <v>冬季校服</v>
@@ -2635,7 +2638,7 @@
         <v>男</v>
       </c>
       <c r="G88" t="str">
-        <v>l</v>
+        <v>xxl</v>
       </c>
       <c r="H88" t="str">
         <v>裤装</v>
@@ -2643,7 +2646,7 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>S000086</v>
+        <v>S000088</v>
       </c>
       <c r="B89" t="str">
         <v>冬季校服</v>
@@ -2661,7 +2664,7 @@
         <v>男</v>
       </c>
       <c r="G89" t="str">
-        <v>xl</v>
+        <v>xxxl</v>
       </c>
       <c r="H89" t="str">
         <v>裤装</v>
@@ -2669,7 +2672,7 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>S000087</v>
+        <v>S000089</v>
       </c>
       <c r="B90" t="str">
         <v>冬季校服</v>
@@ -2687,7 +2690,7 @@
         <v>男</v>
       </c>
       <c r="G90" t="str">
-        <v>xxl</v>
+        <v>xxxxl</v>
       </c>
       <c r="H90" t="str">
         <v>裤装</v>
@@ -2695,65 +2698,53 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>S000088</v>
+        <v>S000090</v>
       </c>
       <c r="B91" t="str">
-        <v>冬季校服</v>
+        <v>宿舍本月待缴电费</v>
       </c>
       <c r="C91">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D91" t="str">
-        <v>A00002</v>
+        <v>A00003</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
-      <c r="F91" t="str">
-        <v>男</v>
-      </c>
-      <c r="G91" t="str">
-        <v>xxxl</v>
-      </c>
-      <c r="H91" t="str">
-        <v>裤装</v>
+      <c r="I91" t="str">
+        <v>由后台自动生成本月待缴订单（暂不考虑国家补助部分）</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>S000089</v>
+        <v>S000091</v>
       </c>
       <c r="B92" t="str">
-        <v>冬季校服</v>
+        <v>宿舍空调充值</v>
       </c>
       <c r="C92">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="D92" t="str">
-        <v>A00002</v>
+        <v>A00003</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92" t="str">
-        <v>男</v>
-      </c>
-      <c r="G92" t="str">
-        <v>xxxxl</v>
-      </c>
-      <c r="H92" t="str">
-        <v>裤装</v>
+        <v>50元</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>S000090</v>
+        <v>S000092</v>
       </c>
       <c r="B93" t="str">
-        <v>宿舍本月待缴电费</v>
+        <v>宿舍空调充值</v>
       </c>
       <c r="C93">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D93" t="str">
         <v>A00003</v>
@@ -2761,19 +2752,19 @@
       <c r="E93">
         <v>1</v>
       </c>
-      <c r="I93" t="str">
-        <v>由后台自动生成本月待缴订单（暂不考虑国家补助部分）</v>
+      <c r="F93" t="str">
+        <v>100元</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>S000091</v>
+        <v>S000093</v>
       </c>
       <c r="B94" t="str">
         <v>宿舍空调充值</v>
       </c>
       <c r="C94">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="D94" t="str">
         <v>A00003</v>
@@ -2782,58 +2773,64 @@
         <v>1</v>
       </c>
       <c r="F94" t="str">
-        <v>50元</v>
+        <v>200元</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>S000092</v>
+        <v>S000094</v>
       </c>
       <c r="B95" t="str">
-        <v>宿舍空调充值</v>
+        <v>学年住宿费</v>
       </c>
       <c r="C95">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="D95" t="str">
-        <v>A00003</v>
+        <v>A00004</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="str">
-        <v>100元</v>
+        <v>1000元宿舍</v>
+      </c>
+      <c r="I95" t="str">
+        <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>S000093</v>
+        <v>S000095</v>
       </c>
       <c r="B96" t="str">
-        <v>宿舍空调充值</v>
+        <v>学年住宿费</v>
       </c>
       <c r="C96">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="D96" t="str">
-        <v>A00003</v>
+        <v>A00004</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="str">
-        <v>200元</v>
+        <v>1200元宿舍</v>
+      </c>
+      <c r="I96" t="str">
+        <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>S000094</v>
+        <v>S000096</v>
       </c>
       <c r="B97" t="str">
         <v>学年住宿费</v>
       </c>
       <c r="C97">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="D97" t="str">
         <v>A00004</v>
@@ -2842,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="F97" t="str">
-        <v>1000元宿舍</v>
+        <v>1500元宿舍</v>
       </c>
       <c r="I97" t="str">
         <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
@@ -2850,13 +2847,13 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>S000095</v>
+        <v>S000097</v>
       </c>
       <c r="B98" t="str">
         <v>学年住宿费</v>
       </c>
       <c r="C98">
-        <v>1200</v>
+        <v>2000</v>
       </c>
       <c r="D98" t="str">
         <v>A00004</v>
@@ -2865,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="str">
-        <v>1200元宿舍</v>
+        <v>2000元宿舍</v>
       </c>
       <c r="I98" t="str">
         <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
@@ -2873,79 +2870,85 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>S000096</v>
+        <v>S000098</v>
       </c>
       <c r="B99" t="str">
-        <v>学年住宿费</v>
+        <v>宿舍本月待缴水费</v>
       </c>
       <c r="C99">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D99" t="str">
-        <v>A00004</v>
+        <v>A00005</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99" t="str">
-        <v>1500元宿舍</v>
+        <v>1</v>
       </c>
       <c r="I99" t="str">
-        <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
+        <v>由后台自动生成本月待缴订单（暂不考虑国家补助部分）</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>S000097</v>
+        <v>S000099</v>
       </c>
       <c r="B100" t="str">
-        <v>学年住宿费</v>
+        <v>本科统一教材</v>
       </c>
       <c r="C100">
-        <v>2000</v>
+        <v>54.14</v>
       </c>
       <c r="D100" t="str">
-        <v>A00004</v>
+        <v>A00006</v>
       </c>
       <c r="E100">
         <v>0</v>
       </c>
       <c r="F100" t="str">
-        <v>2000元宿舍</v>
-      </c>
-      <c r="I100" t="str">
-        <v>由后台自动生成（学年初，与教材订单合并）本月待缴订单</v>
+        <v>本科一批</v>
+      </c>
+      <c r="G100" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H100" t="str">
+        <v>大学计算机信息技术</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>S000098</v>
+        <v>S000100</v>
       </c>
       <c r="B101" t="str">
-        <v>宿舍本月待缴水费</v>
+        <v>本科统一教材</v>
       </c>
       <c r="C101">
-        <v>10000</v>
+        <v>34.84</v>
       </c>
       <c r="D101" t="str">
-        <v>A00005</v>
+        <v>A00006</v>
       </c>
       <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="I101" t="str">
-        <v>由后台自动生成本月待缴订单（暂不考虑国家补助部分）</v>
+        <v>0</v>
+      </c>
+      <c r="F101" t="str">
+        <v>本科一批</v>
+      </c>
+      <c r="G101" t="str">
+        <v>第1学期</v>
+      </c>
+      <c r="H101" t="str">
+        <v>大学英语1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>S000099</v>
+        <v>S000101</v>
       </c>
       <c r="B102" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C102">
-        <v>54.14</v>
+        <v>30.88</v>
       </c>
       <c r="D102" t="str">
         <v>A00006</v>
@@ -2957,21 +2960,21 @@
         <v>本科一批</v>
       </c>
       <c r="G102" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H102" t="str">
-        <v>大学计算机信息技术</v>
+        <v>大学英语2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>S000100</v>
+        <v>S000102</v>
       </c>
       <c r="B103" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C103">
-        <v>34.84</v>
+        <v>72.69</v>
       </c>
       <c r="D103" t="str">
         <v>A00006</v>
@@ -2983,21 +2986,21 @@
         <v>本科一批</v>
       </c>
       <c r="G103" t="str">
-        <v>第1学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H103" t="str">
-        <v>大学英语1</v>
+        <v>大学英语3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>S000101</v>
+        <v>S000103</v>
       </c>
       <c r="B104" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C104">
-        <v>30.88</v>
+        <v>40.48</v>
       </c>
       <c r="D104" t="str">
         <v>A00006</v>
@@ -3009,21 +3012,21 @@
         <v>本科一批</v>
       </c>
       <c r="G104" t="str">
-        <v>第2学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H104" t="str">
-        <v>大学英语2</v>
+        <v>大学英语4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>S000102</v>
+        <v>S000104</v>
       </c>
       <c r="B105" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C105">
-        <v>72.69</v>
+        <v>70.2</v>
       </c>
       <c r="D105" t="str">
         <v>A00006</v>
@@ -3035,21 +3038,21 @@
         <v>本科一批</v>
       </c>
       <c r="G105" t="str">
-        <v>第3学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H105" t="str">
-        <v>大学英语3</v>
+        <v>大学普通物理1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>S000103</v>
+        <v>S000105</v>
       </c>
       <c r="B106" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C106">
-        <v>40.48</v>
+        <v>65.75</v>
       </c>
       <c r="D106" t="str">
         <v>A00006</v>
@@ -3061,21 +3064,21 @@
         <v>本科一批</v>
       </c>
       <c r="G106" t="str">
-        <v>第4学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H106" t="str">
-        <v>大学英语4</v>
+        <v>大学普通物理2</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>S000104</v>
+        <v>S000106</v>
       </c>
       <c r="B107" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C107">
-        <v>70.2</v>
+        <v>89.89</v>
       </c>
       <c r="D107" t="str">
         <v>A00006</v>
@@ -3090,18 +3093,18 @@
         <v>第1学期</v>
       </c>
       <c r="H107" t="str">
-        <v>大学普通物理1</v>
+        <v>高等数学1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>S000105</v>
+        <v>S000107</v>
       </c>
       <c r="B108" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C108">
-        <v>65.75</v>
+        <v>45.24</v>
       </c>
       <c r="D108" t="str">
         <v>A00006</v>
@@ -3116,18 +3119,18 @@
         <v>第2学期</v>
       </c>
       <c r="H108" t="str">
-        <v>大学普通物理2</v>
+        <v>高等数学2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>S000106</v>
+        <v>S000108</v>
       </c>
       <c r="B109" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C109">
-        <v>89.89</v>
+        <v>39.95</v>
       </c>
       <c r="D109" t="str">
         <v>A00006</v>
@@ -3142,18 +3145,18 @@
         <v>第1学期</v>
       </c>
       <c r="H109" t="str">
-        <v>高等数学1</v>
+        <v>线性代数</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>S000107</v>
+        <v>S000109</v>
       </c>
       <c r="B110" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C110">
-        <v>45.24</v>
+        <v>60.36</v>
       </c>
       <c r="D110" t="str">
         <v>A00006</v>
@@ -3168,18 +3171,18 @@
         <v>第2学期</v>
       </c>
       <c r="H110" t="str">
-        <v>高等数学2</v>
+        <v>概率论与数理统计</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>S000108</v>
+        <v>S000110</v>
       </c>
       <c r="B111" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C111">
-        <v>39.95</v>
+        <v>56.22</v>
       </c>
       <c r="D111" t="str">
         <v>A00006</v>
@@ -3194,18 +3197,18 @@
         <v>第1学期</v>
       </c>
       <c r="H111" t="str">
-        <v>线性代数</v>
+        <v>体育与健康1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>S000109</v>
+        <v>S000111</v>
       </c>
       <c r="B112" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C112">
-        <v>60.36</v>
+        <v>57.37</v>
       </c>
       <c r="D112" t="str">
         <v>A00006</v>
@@ -3220,18 +3223,18 @@
         <v>第2学期</v>
       </c>
       <c r="H112" t="str">
-        <v>概率论与数理统计</v>
+        <v>体育与健康2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>S000110</v>
+        <v>S000112</v>
       </c>
       <c r="B113" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C113">
-        <v>56.22</v>
+        <v>42.81</v>
       </c>
       <c r="D113" t="str">
         <v>A00006</v>
@@ -3243,21 +3246,21 @@
         <v>本科一批</v>
       </c>
       <c r="G113" t="str">
-        <v>第1学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H113" t="str">
-        <v>体育与健康1</v>
+        <v>体育与健康3</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>S000111</v>
+        <v>S000113</v>
       </c>
       <c r="B114" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C114">
-        <v>57.37</v>
+        <v>57.98</v>
       </c>
       <c r="D114" t="str">
         <v>A00006</v>
@@ -3269,21 +3272,21 @@
         <v>本科一批</v>
       </c>
       <c r="G114" t="str">
-        <v>第2学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H114" t="str">
-        <v>体育与健康2</v>
+        <v>体育与健康4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>S000112</v>
+        <v>S000114</v>
       </c>
       <c r="B115" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C115">
-        <v>42.81</v>
+        <v>65.22</v>
       </c>
       <c r="D115" t="str">
         <v>A00006</v>
@@ -3295,21 +3298,21 @@
         <v>本科一批</v>
       </c>
       <c r="G115" t="str">
-        <v>第3学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H115" t="str">
-        <v>体育与健康3</v>
+        <v>思想道德修养</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>S000113</v>
+        <v>S000115</v>
       </c>
       <c r="B116" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C116">
-        <v>57.98</v>
+        <v>81.28</v>
       </c>
       <c r="D116" t="str">
         <v>A00006</v>
@@ -3321,21 +3324,21 @@
         <v>本科一批</v>
       </c>
       <c r="G116" t="str">
-        <v>第4学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H116" t="str">
-        <v>体育与健康4</v>
+        <v>马克思主义原理</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>S000114</v>
+        <v>S000116</v>
       </c>
       <c r="B117" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C117">
-        <v>65.22</v>
+        <v>81.44</v>
       </c>
       <c r="D117" t="str">
         <v>A00006</v>
@@ -3347,21 +3350,21 @@
         <v>本科一批</v>
       </c>
       <c r="G117" t="str">
-        <v>第1学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H117" t="str">
-        <v>思想道德修养</v>
+        <v>近代史纲要</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>S000115</v>
+        <v>S000117</v>
       </c>
       <c r="B118" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C118">
-        <v>81.28</v>
+        <v>64.77</v>
       </c>
       <c r="D118" t="str">
         <v>A00006</v>
@@ -3373,21 +3376,21 @@
         <v>本科一批</v>
       </c>
       <c r="G118" t="str">
-        <v>第2学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H118" t="str">
-        <v>马克思主义原理</v>
+        <v>毛泽东思想概论</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>S000116</v>
+        <v>S000118</v>
       </c>
       <c r="B119" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C119">
-        <v>81.44</v>
+        <v>71.15</v>
       </c>
       <c r="D119" t="str">
         <v>A00006</v>
@@ -3399,21 +3402,21 @@
         <v>本科一批</v>
       </c>
       <c r="G119" t="str">
-        <v>第3学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H119" t="str">
-        <v>近代史纲要</v>
+        <v>形势与政策1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>S000117</v>
+        <v>S000119</v>
       </c>
       <c r="B120" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C120">
-        <v>64.77</v>
+        <v>88.46</v>
       </c>
       <c r="D120" t="str">
         <v>A00006</v>
@@ -3425,21 +3428,21 @@
         <v>本科一批</v>
       </c>
       <c r="G120" t="str">
-        <v>第4学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H120" t="str">
-        <v>毛泽东思想概论</v>
+        <v>形势与政策2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>S000118</v>
+        <v>S000120</v>
       </c>
       <c r="B121" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C121">
-        <v>71.15</v>
+        <v>48.8</v>
       </c>
       <c r="D121" t="str">
         <v>A00006</v>
@@ -3454,18 +3457,18 @@
         <v>第1学期</v>
       </c>
       <c r="H121" t="str">
-        <v>形势与政策1</v>
+        <v>职业生涯规划1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>S000119</v>
+        <v>S000121</v>
       </c>
       <c r="B122" t="str">
         <v>本科统一教材</v>
       </c>
       <c r="C122">
-        <v>88.46</v>
+        <v>63.65</v>
       </c>
       <c r="D122" t="str">
         <v>A00006</v>
@@ -3480,18 +3483,18 @@
         <v>第2学期</v>
       </c>
       <c r="H122" t="str">
-        <v>形势与政策2</v>
+        <v>职业生涯规划2</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>S000120</v>
+        <v>S000122</v>
       </c>
       <c r="B123" t="str">
-        <v>本科统一教材</v>
+        <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C123">
-        <v>48.8</v>
+        <v>39.18</v>
       </c>
       <c r="D123" t="str">
         <v>A00006</v>
@@ -3500,24 +3503,24 @@
         <v>0</v>
       </c>
       <c r="F123" t="str">
-        <v>本科一批</v>
+        <v>计算机科学与技术</v>
       </c>
       <c r="G123" t="str">
         <v>第1学期</v>
       </c>
       <c r="H123" t="str">
-        <v>职业生涯规划1</v>
+        <v>面向对象与C++程序设计</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>S000121</v>
+        <v>S000123</v>
       </c>
       <c r="B124" t="str">
-        <v>本科统一教材</v>
+        <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C124">
-        <v>63.65</v>
+        <v>78.4</v>
       </c>
       <c r="D124" t="str">
         <v>A00006</v>
@@ -3526,24 +3529,24 @@
         <v>0</v>
       </c>
       <c r="F124" t="str">
-        <v>本科一批</v>
+        <v>计算机科学与技术</v>
       </c>
       <c r="G124" t="str">
         <v>第2学期</v>
       </c>
       <c r="H124" t="str">
-        <v>职业生涯规划2</v>
+        <v>程序设计课程实践</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>S000122</v>
+        <v>S000124</v>
       </c>
       <c r="B125" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C125">
-        <v>39.18</v>
+        <v>25.52</v>
       </c>
       <c r="D125" t="str">
         <v>A00006</v>
@@ -3555,21 +3558,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G125" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H125" t="str">
-        <v>面向对象与C++程序设计</v>
+        <v>信息检索综合实践</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>S000123</v>
+        <v>S000125</v>
       </c>
       <c r="B126" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C126">
-        <v>78.4</v>
+        <v>51.19</v>
       </c>
       <c r="D126" t="str">
         <v>A00006</v>
@@ -3581,21 +3584,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G126" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H126" t="str">
-        <v>程序设计课程实践</v>
+        <v>计算机组成及系统结构</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>S000124</v>
+        <v>S000126</v>
       </c>
       <c r="B127" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C127">
-        <v>25.52</v>
+        <v>38.33</v>
       </c>
       <c r="D127" t="str">
         <v>A00006</v>
@@ -3607,21 +3610,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G127" t="str">
-        <v>第2学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H127" t="str">
-        <v>信息检索综合实践</v>
+        <v>编译原理</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>S000125</v>
+        <v>S000127</v>
       </c>
       <c r="B128" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C128">
-        <v>51.19</v>
+        <v>44.09</v>
       </c>
       <c r="D128" t="str">
         <v>A00006</v>
@@ -3636,18 +3639,18 @@
         <v>第3学期</v>
       </c>
       <c r="H128" t="str">
-        <v>计算机组成及系统结构</v>
+        <v>数据库原理与设计</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>S000126</v>
+        <v>S000128</v>
       </c>
       <c r="B129" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C129">
-        <v>38.33</v>
+        <v>59.18</v>
       </c>
       <c r="D129" t="str">
         <v>A00006</v>
@@ -3662,18 +3665,18 @@
         <v>第4学期</v>
       </c>
       <c r="H129" t="str">
-        <v>编译原理</v>
+        <v>数据库课程实践</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>S000127</v>
+        <v>S000129</v>
       </c>
       <c r="B130" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C130">
-        <v>44.09</v>
+        <v>43.84</v>
       </c>
       <c r="D130" t="str">
         <v>A00006</v>
@@ -3685,21 +3688,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G130" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H130" t="str">
-        <v>数据库原理与设计</v>
+        <v>Java程序设计</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>S000128</v>
+        <v>S000130</v>
       </c>
       <c r="B131" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C131">
-        <v>59.18</v>
+        <v>78.11</v>
       </c>
       <c r="D131" t="str">
         <v>A00006</v>
@@ -3711,21 +3714,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G131" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H131" t="str">
-        <v>数据库课程实践</v>
+        <v>微型计算机技术</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>S000129</v>
+        <v>S000131</v>
       </c>
       <c r="B132" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C132">
-        <v>43.84</v>
+        <v>42.13</v>
       </c>
       <c r="D132" t="str">
         <v>A00006</v>
@@ -3737,21 +3740,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G132" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H132" t="str">
-        <v>Java程序设计</v>
+        <v>操作系统课程实践</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>S000130</v>
+        <v>S000132</v>
       </c>
       <c r="B133" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C133">
-        <v>78.11</v>
+        <v>67.39</v>
       </c>
       <c r="D133" t="str">
         <v>A00006</v>
@@ -3763,21 +3766,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G133" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H133" t="str">
-        <v>微型计算机技术</v>
+        <v>Linux操作系统</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>S000131</v>
+        <v>S000133</v>
       </c>
       <c r="B134" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C134">
-        <v>42.13</v>
+        <v>27.84</v>
       </c>
       <c r="D134" t="str">
         <v>A00006</v>
@@ -3789,21 +3792,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G134" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H134" t="str">
-        <v>操作系统课程实践</v>
+        <v>综合项目实践</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>S000132</v>
+        <v>S000134</v>
       </c>
       <c r="B135" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C135">
-        <v>67.39</v>
+        <v>67.97</v>
       </c>
       <c r="D135" t="str">
         <v>A00006</v>
@@ -3818,18 +3821,18 @@
         <v>第6学期</v>
       </c>
       <c r="H135" t="str">
-        <v>Linux操作系统</v>
+        <v>嵌入式系统及应用</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>S000133</v>
+        <v>S000135</v>
       </c>
       <c r="B136" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C136">
-        <v>27.84</v>
+        <v>36.61</v>
       </c>
       <c r="D136" t="str">
         <v>A00006</v>
@@ -3841,21 +3844,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G136" t="str">
-        <v>第6学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H136" t="str">
-        <v>综合项目实践</v>
+        <v>C语言程序设计</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>S000134</v>
+        <v>S000136</v>
       </c>
       <c r="B137" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C137">
-        <v>67.97</v>
+        <v>83.76</v>
       </c>
       <c r="D137" t="str">
         <v>A00006</v>
@@ -3867,21 +3870,21 @@
         <v>计算机科学与技术</v>
       </c>
       <c r="G137" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H137" t="str">
-        <v>嵌入式系统及应用</v>
+        <v>数据仓库与数据挖掘</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>S000135</v>
+        <v>S000137</v>
       </c>
       <c r="B138" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C138">
-        <v>36.61</v>
+        <v>46.4</v>
       </c>
       <c r="D138" t="str">
         <v>A00006</v>
@@ -3890,24 +3893,24 @@
         <v>0</v>
       </c>
       <c r="F138" t="str">
-        <v>计算机科学与技术</v>
+        <v>人工智能专业</v>
       </c>
       <c r="G138" t="str">
-        <v>第5学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H138" t="str">
-        <v>C语言程序设计</v>
+        <v>数据结构</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>S000136</v>
+        <v>S000138</v>
       </c>
       <c r="B139" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C139">
-        <v>83.76</v>
+        <v>78.16</v>
       </c>
       <c r="D139" t="str">
         <v>A00006</v>
@@ -3916,24 +3919,24 @@
         <v>0</v>
       </c>
       <c r="F139" t="str">
-        <v>计算机科学与技术</v>
+        <v>人工智能专业</v>
       </c>
       <c r="G139" t="str">
-        <v>第7学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H139" t="str">
-        <v>数据仓库与数据挖掘</v>
+        <v>离散数学</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>S000137</v>
+        <v>S000139</v>
       </c>
       <c r="B140" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C140">
-        <v>46.4</v>
+        <v>43.54</v>
       </c>
       <c r="D140" t="str">
         <v>A00006</v>
@@ -3945,21 +3948,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G140" t="str">
-        <v>第1学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H140" t="str">
-        <v>数据结构</v>
+        <v>神经网络原理</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>S000138</v>
+        <v>S000140</v>
       </c>
       <c r="B141" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C141">
-        <v>78.16</v>
+        <v>85.83</v>
       </c>
       <c r="D141" t="str">
         <v>A00006</v>
@@ -3971,21 +3974,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G141" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H141" t="str">
-        <v>离散数学</v>
+        <v>操作系统</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>S000139</v>
+        <v>S000141</v>
       </c>
       <c r="B142" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C142">
-        <v>43.54</v>
+        <v>31.91</v>
       </c>
       <c r="D142" t="str">
         <v>A00006</v>
@@ -4000,18 +4003,18 @@
         <v>第3学期</v>
       </c>
       <c r="H142" t="str">
-        <v>神经网络原理</v>
+        <v>知识表示</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>S000140</v>
+        <v>S000142</v>
       </c>
       <c r="B143" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C143">
-        <v>85.83</v>
+        <v>52.33</v>
       </c>
       <c r="D143" t="str">
         <v>A00006</v>
@@ -4023,21 +4026,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G143" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H143" t="str">
-        <v>操作系统</v>
+        <v>计算机组成与系统结构</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>S000141</v>
+        <v>S000143</v>
       </c>
       <c r="B144" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C144">
-        <v>31.91</v>
+        <v>90.61</v>
       </c>
       <c r="D144" t="str">
         <v>A00006</v>
@@ -4049,21 +4052,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G144" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H144" t="str">
-        <v>知识表示</v>
+        <v>AI算法设计与分析</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>S000142</v>
+        <v>S000144</v>
       </c>
       <c r="B145" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C145">
-        <v>52.33</v>
+        <v>53</v>
       </c>
       <c r="D145" t="str">
         <v>A00006</v>
@@ -4078,18 +4081,18 @@
         <v>第4学期</v>
       </c>
       <c r="H145" t="str">
-        <v>计算机组成与系统结构</v>
+        <v>机器学习</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>S000143</v>
+        <v>S000145</v>
       </c>
       <c r="B146" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C146">
-        <v>90.61</v>
+        <v>86.59</v>
       </c>
       <c r="D146" t="str">
         <v>A00006</v>
@@ -4101,21 +4104,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G146" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H146" t="str">
-        <v>AI算法设计与分析</v>
+        <v>神经网络原理</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>S000144</v>
+        <v>S000146</v>
       </c>
       <c r="B147" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C147">
-        <v>53</v>
+        <v>81.54</v>
       </c>
       <c r="D147" t="str">
         <v>A00006</v>
@@ -4127,21 +4130,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G147" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H147" t="str">
-        <v>机器学习</v>
+        <v>操作系统</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>S000145</v>
+        <v>S000147</v>
       </c>
       <c r="B148" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C148">
-        <v>86.59</v>
+        <v>72.11</v>
       </c>
       <c r="D148" t="str">
         <v>A00006</v>
@@ -4156,18 +4159,18 @@
         <v>第5学期</v>
       </c>
       <c r="H148" t="str">
-        <v>神经网络原理</v>
+        <v>知识表示</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>S000146</v>
+        <v>S000148</v>
       </c>
       <c r="B149" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C149">
-        <v>81.54</v>
+        <v>26.49</v>
       </c>
       <c r="D149" t="str">
         <v>A00006</v>
@@ -4182,18 +4185,18 @@
         <v>第5学期</v>
       </c>
       <c r="H149" t="str">
-        <v>操作系统</v>
+        <v>计算机组成与系统结构</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>S000147</v>
+        <v>S000149</v>
       </c>
       <c r="B150" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C150">
-        <v>72.11</v>
+        <v>51.79</v>
       </c>
       <c r="D150" t="str">
         <v>A00006</v>
@@ -4205,21 +4208,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G150" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H150" t="str">
-        <v>知识表示</v>
+        <v>文献阅读和科技写作</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>S000148</v>
+        <v>S000150</v>
       </c>
       <c r="B151" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C151">
-        <v>26.49</v>
+        <v>50.83</v>
       </c>
       <c r="D151" t="str">
         <v>A00006</v>
@@ -4231,21 +4234,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G151" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H151" t="str">
-        <v>计算机组成与系统结构</v>
+        <v>机器学习</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>S000149</v>
+        <v>S000151</v>
       </c>
       <c r="B152" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C152">
-        <v>51.79</v>
+        <v>90.08</v>
       </c>
       <c r="D152" t="str">
         <v>A00006</v>
@@ -4260,18 +4263,18 @@
         <v>第6学期</v>
       </c>
       <c r="H152" t="str">
-        <v>文献阅读和科技写作</v>
+        <v>专家系统</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>S000150</v>
+        <v>S000152</v>
       </c>
       <c r="B153" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C153">
-        <v>50.83</v>
+        <v>37.46</v>
       </c>
       <c r="D153" t="str">
         <v>A00006</v>
@@ -4283,21 +4286,21 @@
         <v>人工智能专业</v>
       </c>
       <c r="G153" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H153" t="str">
-        <v>机器学习</v>
+        <v>编译原理</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>S000151</v>
+        <v>S000153</v>
       </c>
       <c r="B154" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C154">
-        <v>90.08</v>
+        <v>71.65</v>
       </c>
       <c r="D154" t="str">
         <v>A00006</v>
@@ -4306,24 +4309,24 @@
         <v>0</v>
       </c>
       <c r="F154" t="str">
-        <v>人工智能专业</v>
+        <v>软件工程专业</v>
       </c>
       <c r="G154" t="str">
-        <v>第6学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H154" t="str">
-        <v>专家系统</v>
+        <v>面向对象与JAVA程序设计</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>S000152</v>
+        <v>S000154</v>
       </c>
       <c r="B155" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C155">
-        <v>37.46</v>
+        <v>57.33</v>
       </c>
       <c r="D155" t="str">
         <v>A00006</v>
@@ -4332,24 +4335,24 @@
         <v>0</v>
       </c>
       <c r="F155" t="str">
-        <v>人工智能专业</v>
+        <v>软件工程专业</v>
       </c>
       <c r="G155" t="str">
-        <v>第7学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H155" t="str">
-        <v>编译原理</v>
+        <v>程序设计课程实践</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>S000153</v>
+        <v>S000155</v>
       </c>
       <c r="B156" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C156">
-        <v>71.65</v>
+        <v>54.69</v>
       </c>
       <c r="D156" t="str">
         <v>A00006</v>
@@ -4361,21 +4364,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G156" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H156" t="str">
-        <v>面向对象与JAVA程序设计</v>
+        <v>信息检索综合实践</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>S000154</v>
+        <v>S000156</v>
       </c>
       <c r="B157" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C157">
-        <v>57.33</v>
+        <v>71.92</v>
       </c>
       <c r="D157" t="str">
         <v>A00006</v>
@@ -4387,21 +4390,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G157" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H157" t="str">
-        <v>程序设计课程实践</v>
+        <v>计算机硬件基础</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>S000155</v>
+        <v>S000157</v>
       </c>
       <c r="B158" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C158">
-        <v>54.69</v>
+        <v>71.56</v>
       </c>
       <c r="D158" t="str">
         <v>A00006</v>
@@ -4413,21 +4416,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G158" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H158" t="str">
-        <v>信息检索综合实践</v>
+        <v>数据库原理与设计</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>S000156</v>
+        <v>S000158</v>
       </c>
       <c r="B159" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C159">
-        <v>71.92</v>
+        <v>34.95</v>
       </c>
       <c r="D159" t="str">
         <v>A00006</v>
@@ -4439,21 +4442,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G159" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H159" t="str">
-        <v>计算机硬件基础</v>
+        <v>数据库课程实践</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>S000157</v>
+        <v>S000159</v>
       </c>
       <c r="B160" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C160">
-        <v>71.56</v>
+        <v>48.32</v>
       </c>
       <c r="D160" t="str">
         <v>A00006</v>
@@ -4465,21 +4468,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G160" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H160" t="str">
-        <v>数据库原理与设计</v>
+        <v>软件系统分析与设计</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>S000158</v>
+        <v>S000160</v>
       </c>
       <c r="B161" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C161">
-        <v>34.95</v>
+        <v>31.6</v>
       </c>
       <c r="D161" t="str">
         <v>A00006</v>
@@ -4491,21 +4494,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G161" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H161" t="str">
-        <v>数据库课程实践</v>
+        <v>软件测试与质量保证课程实践</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>S000159</v>
+        <v>S000161</v>
       </c>
       <c r="B162" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C162">
-        <v>48.32</v>
+        <v>46.43</v>
       </c>
       <c r="D162" t="str">
         <v>A00006</v>
@@ -4517,21 +4520,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G162" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H162" t="str">
-        <v>软件系统分析与设计</v>
+        <v>软件项目管理</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>S000160</v>
+        <v>S000162</v>
       </c>
       <c r="B163" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C163">
-        <v>31.6</v>
+        <v>25.24</v>
       </c>
       <c r="D163" t="str">
         <v>A00006</v>
@@ -4546,18 +4549,18 @@
         <v>第5学期</v>
       </c>
       <c r="H163" t="str">
-        <v>软件测试与质量保证课程实践</v>
+        <v>Linux操作系统</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>S000161</v>
+        <v>S000163</v>
       </c>
       <c r="B164" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C164">
-        <v>46.43</v>
+        <v>77.17</v>
       </c>
       <c r="D164" t="str">
         <v>A00006</v>
@@ -4569,21 +4572,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G164" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H164" t="str">
-        <v>软件项目管理</v>
+        <v>编译原理</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>S000162</v>
+        <v>S000164</v>
       </c>
       <c r="B165" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C165">
-        <v>25.24</v>
+        <v>83.86</v>
       </c>
       <c r="D165" t="str">
         <v>A00006</v>
@@ -4595,21 +4598,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G165" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H165" t="str">
-        <v>Linux操作系统</v>
+        <v>软件体系结构</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>S000163</v>
+        <v>S000165</v>
       </c>
       <c r="B166" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C166">
-        <v>77.17</v>
+        <v>79.8</v>
       </c>
       <c r="D166" t="str">
         <v>A00006</v>
@@ -4621,21 +4624,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G166" t="str">
-        <v>第6学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H166" t="str">
-        <v>编译原理</v>
+        <v>C语言程序设计</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>S000164</v>
+        <v>S000166</v>
       </c>
       <c r="B167" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C167">
-        <v>83.86</v>
+        <v>73.54</v>
       </c>
       <c r="D167" t="str">
         <v>A00006</v>
@@ -4647,21 +4650,21 @@
         <v>软件工程专业</v>
       </c>
       <c r="G167" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H167" t="str">
-        <v>软件体系结构</v>
+        <v>移动应用开发</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>S000165</v>
+        <v>S000167</v>
       </c>
       <c r="B168" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C168">
-        <v>79.8</v>
+        <v>48.67</v>
       </c>
       <c r="D168" t="str">
         <v>A00006</v>
@@ -4670,24 +4673,24 @@
         <v>0</v>
       </c>
       <c r="F168" t="str">
-        <v>软件工程专业</v>
+        <v>信息管理与信息系统专业</v>
       </c>
       <c r="G168" t="str">
-        <v>第5学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H168" t="str">
-        <v>C语言程序设计</v>
+        <v>面向对象与JAVA程序设计</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>S000166</v>
+        <v>S000168</v>
       </c>
       <c r="B169" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C169">
-        <v>73.54</v>
+        <v>27.83</v>
       </c>
       <c r="D169" t="str">
         <v>A00006</v>
@@ -4696,24 +4699,24 @@
         <v>0</v>
       </c>
       <c r="F169" t="str">
-        <v>软件工程专业</v>
+        <v>信息管理与信息系统专业</v>
       </c>
       <c r="G169" t="str">
-        <v>第7学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H169" t="str">
-        <v>移动应用开发</v>
+        <v>程序设计课程实践</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>S000167</v>
+        <v>S000169</v>
       </c>
       <c r="B170" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C170">
-        <v>48.67</v>
+        <v>47.76</v>
       </c>
       <c r="D170" t="str">
         <v>A00006</v>
@@ -4725,21 +4728,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G170" t="str">
-        <v>第1学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H170" t="str">
-        <v>面向对象与JAVA程序设计</v>
+        <v>运筹学</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>S000168</v>
+        <v>S000170</v>
       </c>
       <c r="B171" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C171">
-        <v>27.83</v>
+        <v>36.03</v>
       </c>
       <c r="D171" t="str">
         <v>A00006</v>
@@ -4751,21 +4754,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G171" t="str">
-        <v>第2学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H171" t="str">
-        <v>程序设计课程实践</v>
+        <v>管理统计学</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>S000169</v>
+        <v>S000171</v>
       </c>
       <c r="B172" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C172">
-        <v>47.76</v>
+        <v>39.62</v>
       </c>
       <c r="D172" t="str">
         <v>A00006</v>
@@ -4780,18 +4783,18 @@
         <v>第3学期</v>
       </c>
       <c r="H172" t="str">
-        <v>运筹学</v>
+        <v>生产与运作管理</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>S000170</v>
+        <v>S000172</v>
       </c>
       <c r="B173" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C173">
-        <v>36.03</v>
+        <v>35.17</v>
       </c>
       <c r="D173" t="str">
         <v>A00006</v>
@@ -4803,21 +4806,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G173" t="str">
-        <v>第4学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H173" t="str">
-        <v>管理统计学</v>
+        <v>经济学</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>S000171</v>
+        <v>S000173</v>
       </c>
       <c r="B174" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C174">
-        <v>39.62</v>
+        <v>79.2</v>
       </c>
       <c r="D174" t="str">
         <v>A00006</v>
@@ -4829,21 +4832,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G174" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H174" t="str">
-        <v>生产与运作管理</v>
+        <v>管理信息系统</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>S000172</v>
+        <v>S000174</v>
       </c>
       <c r="B175" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C175">
-        <v>35.17</v>
+        <v>37.07</v>
       </c>
       <c r="D175" t="str">
         <v>A00006</v>
@@ -4855,21 +4858,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G175" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H175" t="str">
-        <v>经济学</v>
+        <v>数据库课程设计</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>S000173</v>
+        <v>S000175</v>
       </c>
       <c r="B176" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C176">
-        <v>79.2</v>
+        <v>76.67</v>
       </c>
       <c r="D176" t="str">
         <v>A00006</v>
@@ -4881,21 +4884,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G176" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H176" t="str">
-        <v>管理信息系统</v>
+        <v>信息组织与检索</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>S000174</v>
+        <v>S000176</v>
       </c>
       <c r="B177" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C177">
-        <v>37.07</v>
+        <v>41.48</v>
       </c>
       <c r="D177" t="str">
         <v>A00006</v>
@@ -4907,21 +4910,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G177" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H177" t="str">
-        <v>数据库课程设计</v>
+        <v>电子商务与网络营销</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>S000175</v>
+        <v>S000177</v>
       </c>
       <c r="B178" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C178">
-        <v>76.67</v>
+        <v>53.29</v>
       </c>
       <c r="D178" t="str">
         <v>A00006</v>
@@ -4936,18 +4939,18 @@
         <v>第5学期</v>
       </c>
       <c r="H178" t="str">
-        <v>信息组织与检索</v>
+        <v>信息系统项目管理</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>S000176</v>
+        <v>S000178</v>
       </c>
       <c r="B179" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C179">
-        <v>41.48</v>
+        <v>70.45</v>
       </c>
       <c r="D179" t="str">
         <v>A00006</v>
@@ -4959,21 +4962,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G179" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H179" t="str">
-        <v>电子商务与网络营销</v>
+        <v>财务管理</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>S000177</v>
+        <v>S000179</v>
       </c>
       <c r="B180" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C180">
-        <v>53.29</v>
+        <v>64.66</v>
       </c>
       <c r="D180" t="str">
         <v>A00006</v>
@@ -4985,21 +4988,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G180" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H180" t="str">
-        <v>信息系统项目管理</v>
+        <v>信息系统分析与设计</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>S000178</v>
+        <v>S000180</v>
       </c>
       <c r="B181" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C181">
-        <v>70.45</v>
+        <v>26.92</v>
       </c>
       <c r="D181" t="str">
         <v>A00006</v>
@@ -5014,18 +5017,18 @@
         <v>第6学期</v>
       </c>
       <c r="H181" t="str">
-        <v>财务管理</v>
+        <v>C语言程序设计</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>S000179</v>
+        <v>S000181</v>
       </c>
       <c r="B182" t="str">
         <v>计算机科学与技术学院教材</v>
       </c>
       <c r="C182">
-        <v>64.66</v>
+        <v>73.18</v>
       </c>
       <c r="D182" t="str">
         <v>A00006</v>
@@ -5037,21 +5040,21 @@
         <v>信息管理与信息系统专业</v>
       </c>
       <c r="G182" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H182" t="str">
-        <v>信息系统分析与设计</v>
+        <v>数据仓库与数据挖掘</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>S000180</v>
+        <v>S000182</v>
       </c>
       <c r="B183" t="str">
-        <v>计算机科学与技术学院教材</v>
+        <v>数学科学学院教材</v>
       </c>
       <c r="C183">
-        <v>26.92</v>
+        <v>86.05</v>
       </c>
       <c r="D183" t="str">
         <v>A00006</v>
@@ -5060,24 +5063,24 @@
         <v>0</v>
       </c>
       <c r="F183" t="str">
-        <v>信息管理与信息系统专业</v>
+        <v>数学与应用数学（基地）</v>
       </c>
       <c r="G183" t="str">
-        <v>第6学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H183" t="str">
-        <v>C语言程序设计</v>
+        <v>解析几何</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>S000181</v>
+        <v>S000183</v>
       </c>
       <c r="B184" t="str">
-        <v>计算机科学与技术学院教材</v>
+        <v>数学科学学院教材</v>
       </c>
       <c r="C184">
-        <v>73.18</v>
+        <v>25.26</v>
       </c>
       <c r="D184" t="str">
         <v>A00006</v>
@@ -5086,24 +5089,24 @@
         <v>0</v>
       </c>
       <c r="F184" t="str">
-        <v>信息管理与信息系统专业</v>
+        <v>数学与应用数学（基地）</v>
       </c>
       <c r="G184" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H184" t="str">
-        <v>数据仓库与数据挖掘</v>
+        <v>数学分析1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>S000182</v>
+        <v>S000184</v>
       </c>
       <c r="B185" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C185">
-        <v>86.05</v>
+        <v>48.7</v>
       </c>
       <c r="D185" t="str">
         <v>A00006</v>
@@ -5118,18 +5121,18 @@
         <v>第1学期</v>
       </c>
       <c r="H185" t="str">
-        <v>解析几何</v>
+        <v>高等代数1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>S000183</v>
+        <v>S000185</v>
       </c>
       <c r="B186" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C186">
-        <v>25.26</v>
+        <v>77.37</v>
       </c>
       <c r="D186" t="str">
         <v>A00006</v>
@@ -5141,21 +5144,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G186" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H186" t="str">
-        <v>数学分析1</v>
+        <v>数学分析2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>S000184</v>
+        <v>S000186</v>
       </c>
       <c r="B187" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C187">
-        <v>48.7</v>
+        <v>54.1</v>
       </c>
       <c r="D187" t="str">
         <v>A00006</v>
@@ -5167,21 +5170,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G187" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H187" t="str">
-        <v>高等代数1</v>
+        <v>高等代数2</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>S000185</v>
+        <v>S000187</v>
       </c>
       <c r="B188" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C188">
-        <v>77.37</v>
+        <v>82.17</v>
       </c>
       <c r="D188" t="str">
         <v>A00006</v>
@@ -5196,18 +5199,18 @@
         <v>第2学期</v>
       </c>
       <c r="H188" t="str">
-        <v>数学分析2</v>
+        <v>C语言程序设计</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>S000186</v>
+        <v>S000188</v>
       </c>
       <c r="B189" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C189">
-        <v>54.1</v>
+        <v>31.54</v>
       </c>
       <c r="D189" t="str">
         <v>A00006</v>
@@ -5219,21 +5222,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G189" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H189" t="str">
-        <v>高等代数2</v>
+        <v>数学分析3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>S000187</v>
+        <v>S000189</v>
       </c>
       <c r="B190" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C190">
-        <v>82.17</v>
+        <v>74.84</v>
       </c>
       <c r="D190" t="str">
         <v>A00006</v>
@@ -5245,21 +5248,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G190" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H190" t="str">
-        <v>C语言程序设计</v>
+        <v>抽象代数1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>S000188</v>
+        <v>S000190</v>
       </c>
       <c r="B191" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C191">
-        <v>31.54</v>
+        <v>40.38</v>
       </c>
       <c r="D191" t="str">
         <v>A00006</v>
@@ -5274,18 +5277,18 @@
         <v>第3学期</v>
       </c>
       <c r="H191" t="str">
-        <v>数学分析3</v>
+        <v>拓扑学1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>S000189</v>
+        <v>S000191</v>
       </c>
       <c r="B192" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C192">
-        <v>74.84</v>
+        <v>30.59</v>
       </c>
       <c r="D192" t="str">
         <v>A00006</v>
@@ -5297,21 +5300,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G192" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H192" t="str">
-        <v>抽象代数1</v>
+        <v>复变函数1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>S000190</v>
+        <v>S000192</v>
       </c>
       <c r="B193" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C193">
-        <v>40.38</v>
+        <v>25.48</v>
       </c>
       <c r="D193" t="str">
         <v>A00006</v>
@@ -5323,21 +5326,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G193" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H193" t="str">
-        <v>拓扑学1</v>
+        <v>抽象代数2</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>S000191</v>
+        <v>S000193</v>
       </c>
       <c r="B194" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C194">
-        <v>30.59</v>
+        <v>54.29</v>
       </c>
       <c r="D194" t="str">
         <v>A00006</v>
@@ -5352,18 +5355,18 @@
         <v>第4学期</v>
       </c>
       <c r="H194" t="str">
-        <v>复变函数1</v>
+        <v>数学史</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>S000192</v>
+        <v>S000194</v>
       </c>
       <c r="B195" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C195">
-        <v>25.48</v>
+        <v>28.3</v>
       </c>
       <c r="D195" t="str">
         <v>A00006</v>
@@ -5375,21 +5378,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G195" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H195" t="str">
-        <v>抽象代数2</v>
+        <v>微分几何</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>S000193</v>
+        <v>S000195</v>
       </c>
       <c r="B196" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C196">
-        <v>54.29</v>
+        <v>71.38</v>
       </c>
       <c r="D196" t="str">
         <v>A00006</v>
@@ -5401,21 +5404,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G196" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H196" t="str">
-        <v>数学史</v>
+        <v>实变函数1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>S000194</v>
+        <v>S000196</v>
       </c>
       <c r="B197" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C197">
-        <v>28.3</v>
+        <v>44.2</v>
       </c>
       <c r="D197" t="str">
         <v>A00006</v>
@@ -5430,18 +5433,18 @@
         <v>第5学期</v>
       </c>
       <c r="H197" t="str">
-        <v>微分几何</v>
+        <v>初等数论</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>S000195</v>
+        <v>S000197</v>
       </c>
       <c r="B198" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C198">
-        <v>71.38</v>
+        <v>35.04</v>
       </c>
       <c r="D198" t="str">
         <v>A00006</v>
@@ -5453,21 +5456,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G198" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H198" t="str">
-        <v>实变函数1</v>
+        <v>泛函分析</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>S000196</v>
+        <v>S000198</v>
       </c>
       <c r="B199" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C199">
-        <v>44.2</v>
+        <v>43.78</v>
       </c>
       <c r="D199" t="str">
         <v>A00006</v>
@@ -5479,21 +5482,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G199" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H199" t="str">
-        <v>初等数论</v>
+        <v>群论</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>S000197</v>
+        <v>S000199</v>
       </c>
       <c r="B200" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C200">
-        <v>35.04</v>
+        <v>37.55</v>
       </c>
       <c r="D200" t="str">
         <v>A00006</v>
@@ -5508,18 +5511,18 @@
         <v>第6学期</v>
       </c>
       <c r="H200" t="str">
-        <v>泛函分析</v>
+        <v>交换代数</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>S000198</v>
+        <v>S000200</v>
       </c>
       <c r="B201" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C201">
-        <v>43.78</v>
+        <v>87.89</v>
       </c>
       <c r="D201" t="str">
         <v>A00006</v>
@@ -5531,21 +5534,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G201" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H201" t="str">
-        <v>群论</v>
+        <v>常微与动力系统</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>S000199</v>
+        <v>S000201</v>
       </c>
       <c r="B202" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C202">
-        <v>37.55</v>
+        <v>56.04</v>
       </c>
       <c r="D202" t="str">
         <v>A00006</v>
@@ -5557,21 +5560,21 @@
         <v>数学与应用数学（基地）</v>
       </c>
       <c r="G202" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H202" t="str">
-        <v>交换代数</v>
+        <v>伽罗瓦理论</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>S000200</v>
+        <v>S000202</v>
       </c>
       <c r="B203" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C203">
-        <v>87.89</v>
+        <v>38.76</v>
       </c>
       <c r="D203" t="str">
         <v>A00006</v>
@@ -5586,18 +5589,18 @@
         <v>第7学期</v>
       </c>
       <c r="H203" t="str">
-        <v>常微与动力系统</v>
+        <v>拓扑学2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>S000201</v>
+        <v>S000203</v>
       </c>
       <c r="B204" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C204">
-        <v>56.04</v>
+        <v>37.52</v>
       </c>
       <c r="D204" t="str">
         <v>A00006</v>
@@ -5606,24 +5609,24 @@
         <v>0</v>
       </c>
       <c r="F204" t="str">
-        <v>数学与应用数学（基地）</v>
+        <v>数学与应用数学（师范）</v>
       </c>
       <c r="G204" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H204" t="str">
-        <v>伽罗瓦理论</v>
+        <v>解析几何</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>S000202</v>
+        <v>S000204</v>
       </c>
       <c r="B205" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C205">
-        <v>38.76</v>
+        <v>43.48</v>
       </c>
       <c r="D205" t="str">
         <v>A00006</v>
@@ -5632,24 +5635,24 @@
         <v>0</v>
       </c>
       <c r="F205" t="str">
-        <v>数学与应用数学（基地）</v>
+        <v>数学与应用数学（师范）</v>
       </c>
       <c r="G205" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H205" t="str">
-        <v>拓扑学2</v>
+        <v>数学分析1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>S000203</v>
+        <v>S000205</v>
       </c>
       <c r="B206" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C206">
-        <v>37.52</v>
+        <v>75.92</v>
       </c>
       <c r="D206" t="str">
         <v>A00006</v>
@@ -5664,18 +5667,18 @@
         <v>第1学期</v>
       </c>
       <c r="H206" t="str">
-        <v>解析几何</v>
+        <v>高等代数1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>S000204</v>
+        <v>S000206</v>
       </c>
       <c r="B207" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C207">
-        <v>43.48</v>
+        <v>66.56</v>
       </c>
       <c r="D207" t="str">
         <v>A00006</v>
@@ -5687,21 +5690,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G207" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H207" t="str">
-        <v>数学分析1</v>
+        <v>数学分析2</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>S000205</v>
+        <v>S000207</v>
       </c>
       <c r="B208" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C208">
-        <v>75.92</v>
+        <v>88.19</v>
       </c>
       <c r="D208" t="str">
         <v>A00006</v>
@@ -5713,21 +5716,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G208" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H208" t="str">
-        <v>高等代数1</v>
+        <v>高等代数2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>S000206</v>
+        <v>S000208</v>
       </c>
       <c r="B209" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C209">
-        <v>66.56</v>
+        <v>77.13</v>
       </c>
       <c r="D209" t="str">
         <v>A00006</v>
@@ -5742,18 +5745,18 @@
         <v>第2学期</v>
       </c>
       <c r="H209" t="str">
-        <v>数学分析2</v>
+        <v>C语言程序设计</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>S000207</v>
+        <v>S000209</v>
       </c>
       <c r="B210" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C210">
-        <v>88.19</v>
+        <v>82.05</v>
       </c>
       <c r="D210" t="str">
         <v>A00006</v>
@@ -5765,21 +5768,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G210" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H210" t="str">
-        <v>高等代数2</v>
+        <v>数学分析3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>S000208</v>
+        <v>S000210</v>
       </c>
       <c r="B211" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C211">
-        <v>77.13</v>
+        <v>59.21</v>
       </c>
       <c r="D211" t="str">
         <v>A00006</v>
@@ -5791,21 +5794,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G211" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H211" t="str">
-        <v>C语言程序设计</v>
+        <v>中学生认知与学习</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>S000209</v>
+        <v>S000211</v>
       </c>
       <c r="B212" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C212">
-        <v>82.05</v>
+        <v>49.03</v>
       </c>
       <c r="D212" t="str">
         <v>A00006</v>
@@ -5820,18 +5823,18 @@
         <v>第3学期</v>
       </c>
       <c r="H212" t="str">
-        <v>数学分析3</v>
+        <v>教师口语</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>S000210</v>
+        <v>S000212</v>
       </c>
       <c r="B213" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C213">
-        <v>59.21</v>
+        <v>72.15</v>
       </c>
       <c r="D213" t="str">
         <v>A00006</v>
@@ -5843,21 +5846,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G213" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H213" t="str">
-        <v>中学生认知与学习</v>
+        <v>有效教学</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>S000211</v>
+        <v>S000213</v>
       </c>
       <c r="B214" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C214">
-        <v>49.03</v>
+        <v>43.89</v>
       </c>
       <c r="D214" t="str">
         <v>A00006</v>
@@ -5869,21 +5872,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G214" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H214" t="str">
-        <v>教师口语</v>
+        <v>教育学原理</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>S000212</v>
+        <v>S000214</v>
       </c>
       <c r="B215" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C215">
-        <v>72.15</v>
+        <v>61.51</v>
       </c>
       <c r="D215" t="str">
         <v>A00006</v>
@@ -5898,18 +5901,18 @@
         <v>第4学期</v>
       </c>
       <c r="H215" t="str">
-        <v>有效教学</v>
+        <v>书法基础</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>S000213</v>
+        <v>S000215</v>
       </c>
       <c r="B216" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C216">
-        <v>43.89</v>
+        <v>44.5</v>
       </c>
       <c r="D216" t="str">
         <v>A00006</v>
@@ -5921,21 +5924,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G216" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H216" t="str">
-        <v>教育学原理</v>
+        <v>数学教育学</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>S000214</v>
+        <v>S000216</v>
       </c>
       <c r="B217" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C217">
-        <v>61.51</v>
+        <v>76.01</v>
       </c>
       <c r="D217" t="str">
         <v>A00006</v>
@@ -5947,21 +5950,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G217" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H217" t="str">
-        <v>书法基础</v>
+        <v>初等数学研究</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>S000215</v>
+        <v>S000217</v>
       </c>
       <c r="B218" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C218">
-        <v>44.5</v>
+        <v>57.53</v>
       </c>
       <c r="D218" t="str">
         <v>A00006</v>
@@ -5976,18 +5979,18 @@
         <v>第5学期</v>
       </c>
       <c r="H218" t="str">
-        <v>数学教育学</v>
+        <v>教师教育技术</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>S000216</v>
+        <v>S000218</v>
       </c>
       <c r="B219" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C219">
-        <v>76.01</v>
+        <v>48.43</v>
       </c>
       <c r="D219" t="str">
         <v>A00006</v>
@@ -5999,21 +6002,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G219" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H219" t="str">
-        <v>初等数学研究</v>
+        <v>微格教学</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>S000217</v>
+        <v>S000219</v>
       </c>
       <c r="B220" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C220">
-        <v>57.53</v>
+        <v>28.08</v>
       </c>
       <c r="D220" t="str">
         <v>A00006</v>
@@ -6025,21 +6028,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G220" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H220" t="str">
-        <v>教师教育技术</v>
+        <v>教育研究方法</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>S000218</v>
+        <v>S000220</v>
       </c>
       <c r="B221" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C221">
-        <v>48.43</v>
+        <v>26.36</v>
       </c>
       <c r="D221" t="str">
         <v>A00006</v>
@@ -6054,18 +6057,18 @@
         <v>第6学期</v>
       </c>
       <c r="H221" t="str">
-        <v>微格教学</v>
+        <v>初等数学建模</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>S000219</v>
+        <v>S000221</v>
       </c>
       <c r="B222" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C222">
-        <v>28.08</v>
+        <v>41.93</v>
       </c>
       <c r="D222" t="str">
         <v>A00006</v>
@@ -6077,21 +6080,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G222" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H222" t="str">
-        <v>教育研究方法</v>
+        <v>竞赛数学</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>S000220</v>
+        <v>S000222</v>
       </c>
       <c r="B223" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C223">
-        <v>26.36</v>
+        <v>38.04</v>
       </c>
       <c r="D223" t="str">
         <v>A00006</v>
@@ -6103,21 +6106,21 @@
         <v>数学与应用数学（师范）</v>
       </c>
       <c r="G223" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H223" t="str">
-        <v>初等数学建模</v>
+        <v>现代数学教育技术</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>S000221</v>
+        <v>S000223</v>
       </c>
       <c r="B224" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C224">
-        <v>41.93</v>
+        <v>75.44</v>
       </c>
       <c r="D224" t="str">
         <v>A00006</v>
@@ -6132,18 +6135,18 @@
         <v>第7学期</v>
       </c>
       <c r="H224" t="str">
-        <v>竞赛数学</v>
+        <v>微分几何</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>S000222</v>
+        <v>S000224</v>
       </c>
       <c r="B225" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C225">
-        <v>38.04</v>
+        <v>28.71</v>
       </c>
       <c r="D225" t="str">
         <v>A00006</v>
@@ -6152,24 +6155,24 @@
         <v>0</v>
       </c>
       <c r="F225" t="str">
-        <v>数学与应用数学（师范）</v>
+        <v>信息与计算科学</v>
       </c>
       <c r="G225" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H225" t="str">
-        <v>现代数学教育技术</v>
+        <v>解析几何</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>S000223</v>
+        <v>S000225</v>
       </c>
       <c r="B226" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C226">
-        <v>75.44</v>
+        <v>28.28</v>
       </c>
       <c r="D226" t="str">
         <v>A00006</v>
@@ -6178,24 +6181,24 @@
         <v>0</v>
       </c>
       <c r="F226" t="str">
-        <v>数学与应用数学（师范）</v>
+        <v>信息与计算科学</v>
       </c>
       <c r="G226" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H226" t="str">
-        <v>微分几何</v>
+        <v>数学分析1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>S000224</v>
+        <v>S000226</v>
       </c>
       <c r="B227" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C227">
-        <v>28.71</v>
+        <v>56.78</v>
       </c>
       <c r="D227" t="str">
         <v>A00006</v>
@@ -6210,18 +6213,18 @@
         <v>第1学期</v>
       </c>
       <c r="H227" t="str">
-        <v>解析几何</v>
+        <v>高等代数1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>S000225</v>
+        <v>S000227</v>
       </c>
       <c r="B228" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C228">
-        <v>28.28</v>
+        <v>84.14</v>
       </c>
       <c r="D228" t="str">
         <v>A00006</v>
@@ -6233,21 +6236,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G228" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H228" t="str">
-        <v>数学分析1</v>
+        <v>数学分析2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>S000226</v>
+        <v>S000228</v>
       </c>
       <c r="B229" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C229">
-        <v>56.78</v>
+        <v>46.85</v>
       </c>
       <c r="D229" t="str">
         <v>A00006</v>
@@ -6259,21 +6262,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G229" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H229" t="str">
-        <v>高等代数1</v>
+        <v>高等代数2</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>S000227</v>
+        <v>S000229</v>
       </c>
       <c r="B230" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C230">
-        <v>84.14</v>
+        <v>41.31</v>
       </c>
       <c r="D230" t="str">
         <v>A00006</v>
@@ -6288,18 +6291,18 @@
         <v>第2学期</v>
       </c>
       <c r="H230" t="str">
-        <v>数学分析2</v>
+        <v>C语言程序设计</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>S000228</v>
+        <v>S000230</v>
       </c>
       <c r="B231" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C231">
-        <v>46.85</v>
+        <v>87.87</v>
       </c>
       <c r="D231" t="str">
         <v>A00006</v>
@@ -6311,21 +6314,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G231" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H231" t="str">
-        <v>高等代数2</v>
+        <v>数学分析3</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>S000229</v>
+        <v>S000231</v>
       </c>
       <c r="B232" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C232">
-        <v>41.31</v>
+        <v>39.76</v>
       </c>
       <c r="D232" t="str">
         <v>A00006</v>
@@ -6337,21 +6340,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G232" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H232" t="str">
-        <v>C语言程序设计</v>
+        <v>离散数学</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>S000230</v>
+        <v>S000232</v>
       </c>
       <c r="B233" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C233">
-        <v>87.87</v>
+        <v>83.95</v>
       </c>
       <c r="D233" t="str">
         <v>A00006</v>
@@ -6366,18 +6369,18 @@
         <v>第3学期</v>
       </c>
       <c r="H233" t="str">
-        <v>数学分析3</v>
+        <v>计算机网络</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>S000231</v>
+        <v>S000233</v>
       </c>
       <c r="B234" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C234">
-        <v>39.76</v>
+        <v>89.94</v>
       </c>
       <c r="D234" t="str">
         <v>A00006</v>
@@ -6389,21 +6392,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G234" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H234" t="str">
-        <v>离散数学</v>
+        <v>Java面向对象程序设计</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>S000232</v>
+        <v>S000234</v>
       </c>
       <c r="B235" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C235">
-        <v>83.95</v>
+        <v>86.22</v>
       </c>
       <c r="D235" t="str">
         <v>A00006</v>
@@ -6415,21 +6418,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G235" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H235" t="str">
-        <v>计算机网络</v>
+        <v>数据结构</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>S000233</v>
+        <v>S000235</v>
       </c>
       <c r="B236" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C236">
-        <v>89.94</v>
+        <v>67.42</v>
       </c>
       <c r="D236" t="str">
         <v>A00006</v>
@@ -6444,18 +6447,18 @@
         <v>第4学期</v>
       </c>
       <c r="H236" t="str">
-        <v>Java面向对象程序设计</v>
+        <v>数学模型与数学软件</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>S000234</v>
+        <v>S000236</v>
       </c>
       <c r="B237" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C237">
-        <v>86.22</v>
+        <v>36.14</v>
       </c>
       <c r="D237" t="str">
         <v>A00006</v>
@@ -6467,21 +6470,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G237" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H237" t="str">
-        <v>数据结构</v>
+        <v>软件设计基础</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>S000235</v>
+        <v>S000237</v>
       </c>
       <c r="B238" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C238">
-        <v>67.42</v>
+        <v>77.85</v>
       </c>
       <c r="D238" t="str">
         <v>A00006</v>
@@ -6493,21 +6496,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G238" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H238" t="str">
-        <v>数学模型与数学软件</v>
+        <v>数据库原理及应用</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>S000236</v>
+        <v>S000238</v>
       </c>
       <c r="B239" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C239">
-        <v>36.14</v>
+        <v>32.44</v>
       </c>
       <c r="D239" t="str">
         <v>A00006</v>
@@ -6522,18 +6525,18 @@
         <v>第5学期</v>
       </c>
       <c r="H239" t="str">
-        <v>软件设计基础</v>
+        <v>操作系统</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>S000237</v>
+        <v>S000239</v>
       </c>
       <c r="B240" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C240">
-        <v>77.85</v>
+        <v>90.72</v>
       </c>
       <c r="D240" t="str">
         <v>A00006</v>
@@ -6545,21 +6548,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G240" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H240" t="str">
-        <v>数据库原理及应用</v>
+        <v>数据科学导论</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>S000238</v>
+        <v>S000240</v>
       </c>
       <c r="B241" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C241">
-        <v>32.44</v>
+        <v>75.18</v>
       </c>
       <c r="D241" t="str">
         <v>A00006</v>
@@ -6571,21 +6574,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G241" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H241" t="str">
-        <v>操作系统</v>
+        <v>运筹学</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>S000239</v>
+        <v>S000241</v>
       </c>
       <c r="B242" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C242">
-        <v>90.72</v>
+        <v>57.3</v>
       </c>
       <c r="D242" t="str">
         <v>A00006</v>
@@ -6600,18 +6603,18 @@
         <v>第6学期</v>
       </c>
       <c r="H242" t="str">
-        <v>数据科学导论</v>
+        <v>数值分析</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>S000240</v>
+        <v>S000242</v>
       </c>
       <c r="B243" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C243">
-        <v>75.18</v>
+        <v>55.08</v>
       </c>
       <c r="D243" t="str">
         <v>A00006</v>
@@ -6623,21 +6626,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G243" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H243" t="str">
-        <v>运筹学</v>
+        <v>三维图形设计</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>S000241</v>
+        <v>S000243</v>
       </c>
       <c r="B244" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C244">
-        <v>57.3</v>
+        <v>60.13</v>
       </c>
       <c r="D244" t="str">
         <v>A00006</v>
@@ -6649,21 +6652,21 @@
         <v>信息与计算科学</v>
       </c>
       <c r="G244" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H244" t="str">
-        <v>数值分析</v>
+        <v>web开发实训</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>S000242</v>
+        <v>S000244</v>
       </c>
       <c r="B245" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C245">
-        <v>55.08</v>
+        <v>51.32</v>
       </c>
       <c r="D245" t="str">
         <v>A00006</v>
@@ -6678,18 +6681,18 @@
         <v>第7学期</v>
       </c>
       <c r="H245" t="str">
-        <v>三维图形设计</v>
+        <v>算法实践</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>S000243</v>
+        <v>S000245</v>
       </c>
       <c r="B246" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C246">
-        <v>60.13</v>
+        <v>66.58</v>
       </c>
       <c r="D246" t="str">
         <v>A00006</v>
@@ -6698,24 +6701,24 @@
         <v>0</v>
       </c>
       <c r="F246" t="str">
-        <v>信息与计算科学</v>
+        <v>统计学</v>
       </c>
       <c r="G246" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H246" t="str">
-        <v>web开发实训</v>
+        <v>解析几何</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>S000244</v>
+        <v>S000246</v>
       </c>
       <c r="B247" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C247">
-        <v>51.32</v>
+        <v>51.5</v>
       </c>
       <c r="D247" t="str">
         <v>A00006</v>
@@ -6724,24 +6727,24 @@
         <v>0</v>
       </c>
       <c r="F247" t="str">
-        <v>信息与计算科学</v>
+        <v>统计学</v>
       </c>
       <c r="G247" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H247" t="str">
-        <v>算法实践</v>
+        <v>数学分析1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>S000245</v>
+        <v>S000247</v>
       </c>
       <c r="B248" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C248">
-        <v>66.58</v>
+        <v>39.25</v>
       </c>
       <c r="D248" t="str">
         <v>A00006</v>
@@ -6756,18 +6759,18 @@
         <v>第1学期</v>
       </c>
       <c r="H248" t="str">
-        <v>解析几何</v>
+        <v>高等代数1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>S000246</v>
+        <v>S000248</v>
       </c>
       <c r="B249" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C249">
-        <v>51.5</v>
+        <v>64.51</v>
       </c>
       <c r="D249" t="str">
         <v>A00006</v>
@@ -6779,21 +6782,21 @@
         <v>统计学</v>
       </c>
       <c r="G249" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H249" t="str">
-        <v>数学分析1</v>
+        <v>数学分析2</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>S000247</v>
+        <v>S000249</v>
       </c>
       <c r="B250" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C250">
-        <v>39.25</v>
+        <v>25.38</v>
       </c>
       <c r="D250" t="str">
         <v>A00006</v>
@@ -6805,21 +6808,21 @@
         <v>统计学</v>
       </c>
       <c r="G250" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H250" t="str">
-        <v>高等代数1</v>
+        <v>高等代数2</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>S000248</v>
+        <v>S000250</v>
       </c>
       <c r="B251" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C251">
-        <v>64.51</v>
+        <v>50.53</v>
       </c>
       <c r="D251" t="str">
         <v>A00006</v>
@@ -6834,18 +6837,18 @@
         <v>第2学期</v>
       </c>
       <c r="H251" t="str">
-        <v>数学分析2</v>
+        <v>C语言程序设计</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>S000249</v>
+        <v>S000251</v>
       </c>
       <c r="B252" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C252">
-        <v>25.38</v>
+        <v>64</v>
       </c>
       <c r="D252" t="str">
         <v>A00006</v>
@@ -6857,21 +6860,21 @@
         <v>统计学</v>
       </c>
       <c r="G252" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H252" t="str">
-        <v>高等代数2</v>
+        <v>数学分析3</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="str">
-        <v>S000250</v>
+        <v>S000252</v>
       </c>
       <c r="B253" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C253">
-        <v>50.53</v>
+        <v>81.9</v>
       </c>
       <c r="D253" t="str">
         <v>A00006</v>
@@ -6883,21 +6886,21 @@
         <v>统计学</v>
       </c>
       <c r="G253" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H253" t="str">
-        <v>C语言程序设计</v>
+        <v>统计学基础</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="str">
-        <v>S000251</v>
+        <v>S000253</v>
       </c>
       <c r="B254" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C254">
-        <v>64</v>
+        <v>81.38</v>
       </c>
       <c r="D254" t="str">
         <v>A00006</v>
@@ -6912,18 +6915,18 @@
         <v>第3学期</v>
       </c>
       <c r="H254" t="str">
-        <v>数学分析3</v>
+        <v>组合数学</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>S000252</v>
+        <v>S000254</v>
       </c>
       <c r="B255" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C255">
-        <v>81.9</v>
+        <v>50.75</v>
       </c>
       <c r="D255" t="str">
         <v>A00006</v>
@@ -6935,21 +6938,21 @@
         <v>统计学</v>
       </c>
       <c r="G255" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H255" t="str">
-        <v>统计学基础</v>
+        <v>抽样调查</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>S000253</v>
+        <v>S000255</v>
       </c>
       <c r="B256" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C256">
-        <v>81.38</v>
+        <v>75.74</v>
       </c>
       <c r="D256" t="str">
         <v>A00006</v>
@@ -6961,21 +6964,21 @@
         <v>统计学</v>
       </c>
       <c r="G256" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H256" t="str">
-        <v>组合数学</v>
+        <v>定性数据分析</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>S000254</v>
+        <v>S000256</v>
       </c>
       <c r="B257" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C257">
-        <v>50.75</v>
+        <v>67.56</v>
       </c>
       <c r="D257" t="str">
         <v>A00006</v>
@@ -6990,18 +6993,18 @@
         <v>第4学期</v>
       </c>
       <c r="H257" t="str">
-        <v>抽样调查</v>
+        <v>数学模型与数学软件</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>S000255</v>
+        <v>S000257</v>
       </c>
       <c r="B258" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C258">
-        <v>75.74</v>
+        <v>44.23</v>
       </c>
       <c r="D258" t="str">
         <v>A00006</v>
@@ -7013,21 +7016,21 @@
         <v>统计学</v>
       </c>
       <c r="G258" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H258" t="str">
-        <v>定性数据分析</v>
+        <v>统计计算与SAS软件</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="str">
-        <v>S000256</v>
+        <v>S000258</v>
       </c>
       <c r="B259" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C259">
-        <v>67.56</v>
+        <v>73.72</v>
       </c>
       <c r="D259" t="str">
         <v>A00006</v>
@@ -7039,21 +7042,21 @@
         <v>统计学</v>
       </c>
       <c r="G259" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H259" t="str">
-        <v>数学模型与数学软件</v>
+        <v>应用多元分析</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>S000257</v>
+        <v>S000259</v>
       </c>
       <c r="B260" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C260">
-        <v>44.23</v>
+        <v>43.32</v>
       </c>
       <c r="D260" t="str">
         <v>A00006</v>
@@ -7068,18 +7071,18 @@
         <v>第5学期</v>
       </c>
       <c r="H260" t="str">
-        <v>统计计算与SAS软件</v>
+        <v>应用回归分析</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="str">
-        <v>S000258</v>
+        <v>S000260</v>
       </c>
       <c r="B261" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C261">
-        <v>73.72</v>
+        <v>68.97</v>
       </c>
       <c r="D261" t="str">
         <v>A00006</v>
@@ -7091,21 +7094,21 @@
         <v>统计学</v>
       </c>
       <c r="G261" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H261" t="str">
-        <v>应用多元分析</v>
+        <v>质量工程管理与ISO</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="str">
-        <v>S000259</v>
+        <v>S000261</v>
       </c>
       <c r="B262" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C262">
-        <v>43.32</v>
+        <v>39.61</v>
       </c>
       <c r="D262" t="str">
         <v>A00006</v>
@@ -7117,21 +7120,21 @@
         <v>统计学</v>
       </c>
       <c r="G262" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H262" t="str">
-        <v>应用回归分析</v>
+        <v>应用时间序列</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>S000260</v>
+        <v>S000262</v>
       </c>
       <c r="B263" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C263">
-        <v>68.97</v>
+        <v>26.16</v>
       </c>
       <c r="D263" t="str">
         <v>A00006</v>
@@ -7146,18 +7149,18 @@
         <v>第6学期</v>
       </c>
       <c r="H263" t="str">
-        <v>质量工程管理与ISO</v>
+        <v>试验设计</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="str">
-        <v>S000261</v>
+        <v>S000263</v>
       </c>
       <c r="B264" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C264">
-        <v>39.61</v>
+        <v>68.05</v>
       </c>
       <c r="D264" t="str">
         <v>A00006</v>
@@ -7169,21 +7172,21 @@
         <v>统计学</v>
       </c>
       <c r="G264" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H264" t="str">
-        <v>应用时间序列</v>
+        <v>应用随机过程</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="str">
-        <v>S000262</v>
+        <v>S000264</v>
       </c>
       <c r="B265" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C265">
-        <v>26.16</v>
+        <v>34.79</v>
       </c>
       <c r="D265" t="str">
         <v>A00006</v>
@@ -7195,21 +7198,21 @@
         <v>统计学</v>
       </c>
       <c r="G265" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H265" t="str">
-        <v>试验设计</v>
+        <v>伽罗瓦理论</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>S000263</v>
+        <v>S000265</v>
       </c>
       <c r="B266" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C266">
-        <v>68.05</v>
+        <v>36.27</v>
       </c>
       <c r="D266" t="str">
         <v>A00006</v>
@@ -7224,18 +7227,18 @@
         <v>第7学期</v>
       </c>
       <c r="H266" t="str">
-        <v>应用随机过程</v>
+        <v>投资项目评估</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="str">
-        <v>S000264</v>
+        <v>S000266</v>
       </c>
       <c r="B267" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C267">
-        <v>34.79</v>
+        <v>36.54</v>
       </c>
       <c r="D267" t="str">
         <v>A00006</v>
@@ -7244,24 +7247,24 @@
         <v>0</v>
       </c>
       <c r="F267" t="str">
-        <v>统计学</v>
+        <v>金融数学</v>
       </c>
       <c r="G267" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H267" t="str">
-        <v>伽罗瓦理论</v>
+        <v>货币银行学</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="str">
-        <v>S000265</v>
+        <v>S000267</v>
       </c>
       <c r="B268" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C268">
-        <v>36.27</v>
+        <v>86.62</v>
       </c>
       <c r="D268" t="str">
         <v>A00006</v>
@@ -7270,24 +7273,24 @@
         <v>0</v>
       </c>
       <c r="F268" t="str">
-        <v>统计学</v>
+        <v>金融数学</v>
       </c>
       <c r="G268" t="str">
-        <v>第7学期</v>
+        <v>第1学期</v>
       </c>
       <c r="H268" t="str">
-        <v>投资项目评估</v>
+        <v>数学分析1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="str">
-        <v>S000266</v>
+        <v>S000268</v>
       </c>
       <c r="B269" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C269">
-        <v>36.54</v>
+        <v>63.48</v>
       </c>
       <c r="D269" t="str">
         <v>A00006</v>
@@ -7302,18 +7305,18 @@
         <v>第1学期</v>
       </c>
       <c r="H269" t="str">
-        <v>货币银行学</v>
+        <v>高等代数1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>S000267</v>
+        <v>S000269</v>
       </c>
       <c r="B270" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C270">
-        <v>86.62</v>
+        <v>34.56</v>
       </c>
       <c r="D270" t="str">
         <v>A00006</v>
@@ -7325,21 +7328,21 @@
         <v>金融数学</v>
       </c>
       <c r="G270" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H270" t="str">
-        <v>数学分析1</v>
+        <v>数学分析2</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>S000268</v>
+        <v>S000270</v>
       </c>
       <c r="B271" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C271">
-        <v>63.48</v>
+        <v>60.4</v>
       </c>
       <c r="D271" t="str">
         <v>A00006</v>
@@ -7351,21 +7354,21 @@
         <v>金融数学</v>
       </c>
       <c r="G271" t="str">
-        <v>第1学期</v>
+        <v>第2学期</v>
       </c>
       <c r="H271" t="str">
-        <v>高等代数1</v>
+        <v>高等代数2</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="str">
-        <v>S000269</v>
+        <v>S000271</v>
       </c>
       <c r="B272" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C272">
-        <v>34.56</v>
+        <v>40.78</v>
       </c>
       <c r="D272" t="str">
         <v>A00006</v>
@@ -7380,18 +7383,18 @@
         <v>第2学期</v>
       </c>
       <c r="H272" t="str">
-        <v>数学分析2</v>
+        <v>C语言程序设计</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>S000270</v>
+        <v>S000272</v>
       </c>
       <c r="B273" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C273">
-        <v>60.4</v>
+        <v>88.97</v>
       </c>
       <c r="D273" t="str">
         <v>A00006</v>
@@ -7403,21 +7406,21 @@
         <v>金融数学</v>
       </c>
       <c r="G273" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H273" t="str">
-        <v>高等代数2</v>
+        <v>数学分析3</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>S000271</v>
+        <v>S000273</v>
       </c>
       <c r="B274" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C274">
-        <v>40.78</v>
+        <v>87.48</v>
       </c>
       <c r="D274" t="str">
         <v>A00006</v>
@@ -7429,21 +7432,21 @@
         <v>金融数学</v>
       </c>
       <c r="G274" t="str">
-        <v>第2学期</v>
+        <v>第3学期</v>
       </c>
       <c r="H274" t="str">
-        <v>C语言程序设计</v>
+        <v>国际贸易理论</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="str">
-        <v>S000272</v>
+        <v>S000274</v>
       </c>
       <c r="B275" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C275">
-        <v>88.97</v>
+        <v>88.59</v>
       </c>
       <c r="D275" t="str">
         <v>A00006</v>
@@ -7458,18 +7461,18 @@
         <v>第3学期</v>
       </c>
       <c r="H275" t="str">
-        <v>数学分析3</v>
+        <v>财务会计</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="str">
-        <v>S000273</v>
+        <v>S000275</v>
       </c>
       <c r="B276" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C276">
-        <v>87.48</v>
+        <v>86.13</v>
       </c>
       <c r="D276" t="str">
         <v>A00006</v>
@@ -7481,21 +7484,21 @@
         <v>金融数学</v>
       </c>
       <c r="G276" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H276" t="str">
-        <v>国际贸易理论</v>
+        <v>财务报表分析</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="str">
-        <v>S000274</v>
+        <v>S000276</v>
       </c>
       <c r="B277" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C277">
-        <v>88.59</v>
+        <v>30.12</v>
       </c>
       <c r="D277" t="str">
         <v>A00006</v>
@@ -7507,21 +7510,21 @@
         <v>金融数学</v>
       </c>
       <c r="G277" t="str">
-        <v>第3学期</v>
+        <v>第4学期</v>
       </c>
       <c r="H277" t="str">
-        <v>财务会计</v>
+        <v>证券投资1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="str">
-        <v>S000275</v>
+        <v>S000277</v>
       </c>
       <c r="B278" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C278">
-        <v>86.13</v>
+        <v>78.11</v>
       </c>
       <c r="D278" t="str">
         <v>A00006</v>
@@ -7536,18 +7539,18 @@
         <v>第4学期</v>
       </c>
       <c r="H278" t="str">
-        <v>财务报表分析</v>
+        <v>数学史</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>S000276</v>
+        <v>S000278</v>
       </c>
       <c r="B279" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C279">
-        <v>30.12</v>
+        <v>38.35</v>
       </c>
       <c r="D279" t="str">
         <v>A00006</v>
@@ -7559,21 +7562,21 @@
         <v>金融数学</v>
       </c>
       <c r="G279" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H279" t="str">
-        <v>证券投资1</v>
+        <v>中央银行概论</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>S000277</v>
+        <v>S000279</v>
       </c>
       <c r="B280" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C280">
-        <v>78.11</v>
+        <v>87.87</v>
       </c>
       <c r="D280" t="str">
         <v>A00006</v>
@@ -7585,21 +7588,21 @@
         <v>金融数学</v>
       </c>
       <c r="G280" t="str">
-        <v>第4学期</v>
+        <v>第5学期</v>
       </c>
       <c r="H280" t="str">
-        <v>数学史</v>
+        <v>财政学</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="str">
-        <v>S000278</v>
+        <v>S000280</v>
       </c>
       <c r="B281" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C281">
-        <v>38.35</v>
+        <v>38.3</v>
       </c>
       <c r="D281" t="str">
         <v>A00006</v>
@@ -7614,18 +7617,18 @@
         <v>第5学期</v>
       </c>
       <c r="H281" t="str">
-        <v>中央银行概论</v>
+        <v>保险学</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="str">
-        <v>S000279</v>
+        <v>S000281</v>
       </c>
       <c r="B282" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C282">
-        <v>87.87</v>
+        <v>42.89</v>
       </c>
       <c r="D282" t="str">
         <v>A00006</v>
@@ -7637,21 +7640,21 @@
         <v>金融数学</v>
       </c>
       <c r="G282" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H282" t="str">
-        <v>财政学</v>
+        <v>风险管理</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>S000280</v>
+        <v>S000282</v>
       </c>
       <c r="B283" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C283">
-        <v>38.3</v>
+        <v>51.83</v>
       </c>
       <c r="D283" t="str">
         <v>A00006</v>
@@ -7663,21 +7666,21 @@
         <v>金融数学</v>
       </c>
       <c r="G283" t="str">
-        <v>第5学期</v>
+        <v>第6学期</v>
       </c>
       <c r="H283" t="str">
-        <v>保险学</v>
+        <v>金融工程原理</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="str">
-        <v>S000281</v>
+        <v>S000283</v>
       </c>
       <c r="B284" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C284">
-        <v>42.89</v>
+        <v>84.22</v>
       </c>
       <c r="D284" t="str">
         <v>A00006</v>
@@ -7692,18 +7695,18 @@
         <v>第6学期</v>
       </c>
       <c r="H284" t="str">
-        <v>风险管理</v>
+        <v>投资银行概论</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>S000282</v>
+        <v>S000284</v>
       </c>
       <c r="B285" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C285">
-        <v>51.83</v>
+        <v>55.9</v>
       </c>
       <c r="D285" t="str">
         <v>A00006</v>
@@ -7715,21 +7718,21 @@
         <v>金融数学</v>
       </c>
       <c r="G285" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H285" t="str">
-        <v>金融工程原理</v>
+        <v>经济法概论</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>S000283</v>
+        <v>S000285</v>
       </c>
       <c r="B286" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C286">
-        <v>84.22</v>
+        <v>77.07</v>
       </c>
       <c r="D286" t="str">
         <v>A00006</v>
@@ -7741,21 +7744,21 @@
         <v>金融数学</v>
       </c>
       <c r="G286" t="str">
-        <v>第6学期</v>
+        <v>第7学期</v>
       </c>
       <c r="H286" t="str">
-        <v>投资银行概论</v>
+        <v>计量经济学</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>S000284</v>
+        <v>S000286</v>
       </c>
       <c r="B287" t="str">
         <v>数学科学学院教材</v>
       </c>
       <c r="C287">
-        <v>55.9</v>
+        <v>72.94</v>
       </c>
       <c r="D287" t="str">
         <v>A00006</v>
@@ -7770,64 +7773,12 @@
         <v>第7学期</v>
       </c>
       <c r="H287" t="str">
-        <v>经济法概论</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="str">
-        <v>S000285</v>
-      </c>
-      <c r="B288" t="str">
-        <v>数学科学学院教材</v>
-      </c>
-      <c r="C288">
-        <v>77.07</v>
-      </c>
-      <c r="D288" t="str">
-        <v>A00006</v>
-      </c>
-      <c r="E288">
-        <v>0</v>
-      </c>
-      <c r="F288" t="str">
-        <v>金融数学</v>
-      </c>
-      <c r="G288" t="str">
-        <v>第7学期</v>
-      </c>
-      <c r="H288" t="str">
-        <v>计量经济学</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="str">
-        <v>S000286</v>
-      </c>
-      <c r="B289" t="str">
-        <v>数学科学学院教材</v>
-      </c>
-      <c r="C289">
-        <v>72.94</v>
-      </c>
-      <c r="D289" t="str">
-        <v>A00006</v>
-      </c>
-      <c r="E289">
-        <v>0</v>
-      </c>
-      <c r="F289" t="str">
-        <v>金融数学</v>
-      </c>
-      <c r="G289" t="str">
-        <v>第7学期</v>
-      </c>
-      <c r="H289" t="str">
         <v>金融专业英语</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I289"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I287"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/router/exportFiles/product_list.xlsx
+++ b/router/exportFiles/product_list.xlsx
@@ -423,7 +423,7 @@
         <v>A00001</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="str">
         <v>1袋</v>
@@ -463,7 +463,7 @@
         <v>A00001</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="str">
         <v>20袋</v>
@@ -526,7 +526,7 @@
         <v>A00002</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="str">
         <v>女</v>
@@ -604,7 +604,7 @@
         <v>A00002</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="str">
         <v>女</v>
@@ -656,7 +656,7 @@
         <v>A00002</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="str">
         <v>女</v>
@@ -682,7 +682,7 @@
         <v>A00002</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="str">
         <v>女</v>
@@ -708,7 +708,7 @@
         <v>A00002</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="str">
         <v>男</v>
@@ -812,7 +812,7 @@
         <v>A00002</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="str">
         <v>男</v>
@@ -890,7 +890,7 @@
         <v>A00002</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="str">
         <v>女</v>
@@ -994,7 +994,7 @@
         <v>A00002</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="str">
         <v>女</v>
@@ -1046,7 +1046,7 @@
         <v>A00002</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="str">
         <v>女</v>
@@ -1254,7 +1254,7 @@
         <v>A00002</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="str">
         <v>女</v>
@@ -1436,7 +1436,7 @@
         <v>A00002</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="str">
         <v>男</v>
@@ -1488,7 +1488,7 @@
         <v>A00002</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="str">
         <v>男</v>
